--- a/database/industries/siman/save/product/quarterly_seprated.xlsx
+++ b/database/industries/siman/save/product/quarterly_seprated.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\siman\save\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E013DB9C-F854-4B9B-AC5A-7F801280D812}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7350"/>
+    <workbookView xWindow="3684" yWindow="2748" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -19,12 +20,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="495" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="501" uniqueCount="56">
   <si>
     <t>Pouya Finance</t>
   </si>
   <si>
-    <t>Copyright @2015 - 2022</t>
+    <t>Copyright @2015 - 2023</t>
   </si>
   <si>
     <t>ساوه-سیمان ساوه</t>
@@ -36,9 +37,6 @@
     <t>مقدار فروش</t>
   </si>
   <si>
-    <t>فصل دوم منتهی به 1400/06</t>
-  </si>
-  <si>
     <t>فصل سوم منتهی به 1400/09</t>
   </si>
   <si>
@@ -51,6 +49,9 @@
     <t>فصل دوم منتهی به 1401/06</t>
   </si>
   <si>
+    <t>فصل سوم منتهی به 1401/09</t>
+  </si>
+  <si>
     <t>مقدار فروش داخلی</t>
   </si>
   <si>
@@ -60,13 +61,13 @@
     <t>تن</t>
   </si>
   <si>
+    <t>-</t>
+  </si>
+  <si>
     <t>سیمان خاکستری</t>
   </si>
   <si>
     <t>سیمان سفید پاکتی 50 کیلویی</t>
-  </si>
-  <si>
-    <t>-</t>
   </si>
   <si>
     <t>سیمان سفید پاکتی 25 کیلویی</t>
@@ -192,7 +193,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -385,7 +386,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -397,7 +398,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -444,6 +445,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -479,6 +497,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -630,17 +665,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:I140"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="9" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -650,7 +685,7 @@
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
     </row>
-    <row r="2" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -662,7 +697,7 @@
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
     </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -674,7 +709,7 @@
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -684,7 +719,7 @@
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
     </row>
-    <row r="5" spans="2:9" ht="42" x14ac:dyDescent="0.65">
+    <row r="5" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -696,7 +731,7 @@
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
     </row>
-    <row r="6" spans="2:9" ht="42" x14ac:dyDescent="0.65">
+    <row r="6" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -708,7 +743,7 @@
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -718,7 +753,7 @@
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
     </row>
-    <row r="8" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -740,7 +775,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -750,7 +785,7 @@
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B10" s="8" t="s">
         <v>10</v>
       </c>
@@ -762,7 +797,7 @@
       <c r="H10" s="9"/>
       <c r="I10" s="9"/>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B11" s="10" t="s">
         <v>11</v>
       </c>
@@ -771,70 +806,70 @@
       </c>
       <c r="D11" s="11"/>
       <c r="E11" s="11">
-        <v>36870</v>
-      </c>
-      <c r="F11" s="11">
         <v>13082</v>
       </c>
+      <c r="F11" s="11" t="s">
+        <v>13</v>
+      </c>
       <c r="G11" s="11">
-        <v>106466</v>
+        <v>56293</v>
       </c>
       <c r="H11" s="11">
-        <v>56293</v>
+        <v>66059</v>
       </c>
       <c r="I11" s="11">
-        <v>66059</v>
-      </c>
-    </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
+        <v>66469</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B12" s="12" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C12" s="13" t="s">
         <v>12</v>
       </c>
       <c r="D12" s="13"/>
       <c r="E12" s="13">
-        <v>362152</v>
-      </c>
-      <c r="F12" s="13">
         <v>475192</v>
       </c>
+      <c r="F12" s="13" t="s">
+        <v>13</v>
+      </c>
       <c r="G12" s="13">
-        <v>465020</v>
+        <v>441996</v>
       </c>
       <c r="H12" s="13">
-        <v>441996</v>
+        <v>444358</v>
       </c>
       <c r="I12" s="13">
-        <v>444358</v>
-      </c>
-    </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+        <v>533264</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B13" s="10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C13" s="11" t="s">
         <v>12</v>
       </c>
       <c r="D13" s="11"/>
       <c r="E13" s="11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F13" s="11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G13" s="11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H13" s="11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I13" s="11" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B14" s="12" t="s">
         <v>16</v>
       </c>
@@ -843,22 +878,22 @@
       </c>
       <c r="D14" s="13"/>
       <c r="E14" s="13" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F14" s="13" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G14" s="13" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H14" s="13" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I14" s="13" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B15" s="10" t="s">
         <v>17</v>
       </c>
@@ -867,22 +902,22 @@
       </c>
       <c r="D15" s="11"/>
       <c r="E15" s="11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F15" s="11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G15" s="11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H15" s="11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I15" s="11" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B16" s="12" t="s">
         <v>18</v>
       </c>
@@ -891,22 +926,22 @@
       </c>
       <c r="D16" s="13"/>
       <c r="E16" s="13" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F16" s="13" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G16" s="13" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H16" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="I16" s="13" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+      <c r="I16" s="13">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B17" s="10" t="s">
         <v>19</v>
       </c>
@@ -915,22 +950,22 @@
       </c>
       <c r="D17" s="11"/>
       <c r="E17" s="11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F17" s="11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G17" s="11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H17" s="11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I17" s="11" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B18" s="12" t="s">
         <v>20</v>
       </c>
@@ -939,22 +974,22 @@
       </c>
       <c r="D18" s="13"/>
       <c r="E18" s="13" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F18" s="13" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G18" s="13" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H18" s="13" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I18" s="13" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B19" s="10" t="s">
         <v>21</v>
       </c>
@@ -963,22 +998,22 @@
       </c>
       <c r="D19" s="11"/>
       <c r="E19" s="11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F19" s="11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G19" s="11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H19" s="11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I19" s="11" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B20" s="12" t="s">
         <v>22</v>
       </c>
@@ -987,44 +1022,44 @@
       </c>
       <c r="D20" s="13"/>
       <c r="E20" s="13" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F20" s="13" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G20" s="13" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H20" s="13" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I20" s="13" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B21" s="14" t="s">
         <v>23</v>
       </c>
       <c r="C21" s="15"/>
       <c r="D21" s="15"/>
       <c r="E21" s="15">
-        <v>399022</v>
+        <v>488274</v>
       </c>
       <c r="F21" s="15">
-        <v>488274</v>
+        <v>0</v>
       </c>
       <c r="G21" s="15">
-        <v>571486</v>
+        <v>498288</v>
       </c>
       <c r="H21" s="15">
-        <v>498288</v>
+        <v>510416</v>
       </c>
       <c r="I21" s="15">
-        <v>510416</v>
-      </c>
-    </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
+        <v>600048</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B22" s="8" t="s">
         <v>24</v>
       </c>
@@ -1036,7 +1071,7 @@
       <c r="H22" s="9"/>
       <c r="I22" s="9"/>
     </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B23" s="10" t="s">
         <v>11</v>
       </c>
@@ -1045,22 +1080,22 @@
       </c>
       <c r="D23" s="11"/>
       <c r="E23" s="11">
-        <v>13094</v>
-      </c>
-      <c r="F23" s="11">
         <v>13601</v>
       </c>
+      <c r="F23" s="11" t="s">
+        <v>13</v>
+      </c>
       <c r="G23" s="11">
-        <v>12723</v>
+        <v>19635</v>
       </c>
       <c r="H23" s="11">
-        <v>19635</v>
+        <v>16938</v>
       </c>
       <c r="I23" s="11">
-        <v>16938</v>
-      </c>
-    </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
+        <v>15249</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B24" s="12" t="s">
         <v>25</v>
       </c>
@@ -1069,13 +1104,13 @@
       </c>
       <c r="D24" s="13"/>
       <c r="E24" s="13">
-        <v>0</v>
-      </c>
-      <c r="F24" s="13">
         <v>6116</v>
       </c>
+      <c r="F24" s="13" t="s">
+        <v>13</v>
+      </c>
       <c r="G24" s="13">
-        <v>4614</v>
+        <v>0</v>
       </c>
       <c r="H24" s="13">
         <v>0</v>
@@ -1084,7 +1119,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B25" s="10" t="s">
         <v>18</v>
       </c>
@@ -1095,20 +1130,20 @@
       <c r="E25" s="11">
         <v>0</v>
       </c>
-      <c r="F25" s="11">
-        <v>0</v>
+      <c r="F25" s="11" t="s">
+        <v>13</v>
       </c>
       <c r="G25" s="11">
         <v>0</v>
       </c>
       <c r="H25" s="11">
-        <v>0</v>
+        <v>2448</v>
       </c>
       <c r="I25" s="11">
-        <v>2448</v>
-      </c>
-    </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
+        <v>182609</v>
+      </c>
+    </row>
+    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B26" s="12" t="s">
         <v>26</v>
       </c>
@@ -1117,22 +1152,22 @@
       </c>
       <c r="D26" s="13"/>
       <c r="E26" s="13" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F26" s="13" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G26" s="13" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H26" s="13" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I26" s="13" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="27" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B27" s="10" t="s">
         <v>20</v>
       </c>
@@ -1141,44 +1176,44 @@
       </c>
       <c r="D27" s="11"/>
       <c r="E27" s="11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F27" s="11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G27" s="11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H27" s="11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I27" s="11" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="28" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B28" s="16" t="s">
         <v>27</v>
       </c>
       <c r="C28" s="17"/>
       <c r="D28" s="17"/>
       <c r="E28" s="17">
-        <v>13094</v>
+        <v>19717</v>
       </c>
       <c r="F28" s="17">
-        <v>19717</v>
+        <v>0</v>
       </c>
       <c r="G28" s="17">
-        <v>17337</v>
+        <v>19635</v>
       </c>
       <c r="H28" s="17">
-        <v>19635</v>
+        <v>19386</v>
       </c>
       <c r="I28" s="17">
-        <v>19386</v>
-      </c>
-    </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
+        <v>197858</v>
+      </c>
+    </row>
+    <row r="29" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B29" s="18" t="s">
         <v>28</v>
       </c>
@@ -1190,7 +1225,7 @@
       <c r="H29" s="19"/>
       <c r="I29" s="19"/>
     </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B30" s="14" t="s">
         <v>29</v>
       </c>
@@ -1212,29 +1247,29 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B31" s="16" t="s">
         <v>30</v>
       </c>
       <c r="C31" s="17"/>
       <c r="D31" s="17"/>
       <c r="E31" s="17" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F31" s="17" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G31" s="17" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H31" s="17" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I31" s="17" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="32" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B32" s="14" t="s">
         <v>31</v>
       </c>
@@ -1243,8 +1278,8 @@
       <c r="E32" s="15">
         <v>0</v>
       </c>
-      <c r="F32" s="15">
-        <v>0</v>
+      <c r="F32" s="15" t="s">
+        <v>13</v>
       </c>
       <c r="G32" s="15">
         <v>0</v>
@@ -1256,29 +1291,29 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B33" s="16" t="s">
         <v>32</v>
       </c>
       <c r="C33" s="17"/>
       <c r="D33" s="17"/>
       <c r="E33" s="17">
-        <v>412116</v>
+        <v>507991</v>
       </c>
       <c r="F33" s="17">
-        <v>507991</v>
+        <v>0</v>
       </c>
       <c r="G33" s="17">
-        <v>588823</v>
+        <v>517923</v>
       </c>
       <c r="H33" s="17">
-        <v>517923</v>
+        <v>529802</v>
       </c>
       <c r="I33" s="17">
-        <v>529802</v>
-      </c>
-    </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
+        <v>797906</v>
+      </c>
+    </row>
+    <row r="34" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
@@ -1288,7 +1323,7 @@
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
     </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
@@ -1298,7 +1333,7 @@
       <c r="H35" s="1"/>
       <c r="I35" s="1"/>
     </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
@@ -1308,7 +1343,7 @@
       <c r="H36" s="1"/>
       <c r="I36" s="1"/>
     </row>
-    <row r="37" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B37" s="7" t="s">
         <v>33</v>
       </c>
@@ -1330,7 +1365,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
@@ -1340,7 +1375,7 @@
       <c r="H38" s="1"/>
       <c r="I38" s="1"/>
     </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B39" s="8" t="s">
         <v>34</v>
       </c>
@@ -1352,7 +1387,7 @@
       <c r="H39" s="9"/>
       <c r="I39" s="9"/>
     </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B40" s="10" t="s">
         <v>11</v>
       </c>
@@ -1361,70 +1396,70 @@
       </c>
       <c r="D40" s="11"/>
       <c r="E40" s="11">
-        <v>390596</v>
-      </c>
-      <c r="F40" s="11">
         <v>631904</v>
       </c>
+      <c r="F40" s="11" t="s">
+        <v>13</v>
+      </c>
       <c r="G40" s="11">
-        <v>574747</v>
+        <v>673714</v>
       </c>
       <c r="H40" s="11">
-        <v>673714</v>
+        <v>1010478</v>
       </c>
       <c r="I40" s="11">
-        <v>1010478</v>
-      </c>
-    </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
+        <v>1010732</v>
+      </c>
+    </row>
+    <row r="41" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B41" s="12" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C41" s="13" t="s">
         <v>35</v>
       </c>
       <c r="D41" s="13"/>
       <c r="E41" s="13">
-        <v>2031460</v>
-      </c>
-      <c r="F41" s="13">
         <v>2189223</v>
       </c>
+      <c r="F41" s="13" t="s">
+        <v>13</v>
+      </c>
       <c r="G41" s="13">
-        <v>2224398</v>
+        <v>2438983</v>
       </c>
       <c r="H41" s="13">
-        <v>2438983</v>
+        <v>3350581</v>
       </c>
       <c r="I41" s="13">
-        <v>3350581</v>
-      </c>
-    </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
+        <v>3489957</v>
+      </c>
+    </row>
+    <row r="42" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B42" s="10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C42" s="11" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="11"/>
       <c r="E42" s="11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F42" s="11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G42" s="11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H42" s="11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I42" s="11" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="43" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B43" s="12" t="s">
         <v>16</v>
       </c>
@@ -1433,22 +1468,22 @@
       </c>
       <c r="D43" s="13"/>
       <c r="E43" s="13" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F43" s="13" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G43" s="13" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H43" s="13" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I43" s="13" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="44" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B44" s="10" t="s">
         <v>17</v>
       </c>
@@ -1457,22 +1492,22 @@
       </c>
       <c r="D44" s="11"/>
       <c r="E44" s="11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F44" s="11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G44" s="11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H44" s="11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I44" s="11" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="45" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B45" s="12" t="s">
         <v>18</v>
       </c>
@@ -1481,22 +1516,22 @@
       </c>
       <c r="D45" s="13"/>
       <c r="E45" s="13" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F45" s="13" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G45" s="13" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H45" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="I45" s="13" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+      <c r="I45" s="13">
+        <v>1009</v>
+      </c>
+    </row>
+    <row r="46" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B46" s="10" t="s">
         <v>19</v>
       </c>
@@ -1505,22 +1540,22 @@
       </c>
       <c r="D46" s="11"/>
       <c r="E46" s="11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F46" s="11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G46" s="11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H46" s="11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I46" s="11" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="47" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B47" s="12" t="s">
         <v>20</v>
       </c>
@@ -1529,22 +1564,22 @@
       </c>
       <c r="D47" s="13"/>
       <c r="E47" s="13" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F47" s="13" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G47" s="13" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H47" s="13" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I47" s="13" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="48" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B48" s="10" t="s">
         <v>21</v>
       </c>
@@ -1553,22 +1588,22 @@
       </c>
       <c r="D48" s="11"/>
       <c r="E48" s="11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F48" s="11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G48" s="11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H48" s="11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I48" s="11" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="49" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B49" s="12" t="s">
         <v>22</v>
       </c>
@@ -1577,44 +1612,44 @@
       </c>
       <c r="D49" s="13"/>
       <c r="E49" s="13" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F49" s="13" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G49" s="13" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H49" s="13" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I49" s="13" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="50" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B50" s="14" t="s">
         <v>23</v>
       </c>
       <c r="C50" s="15"/>
       <c r="D50" s="15"/>
       <c r="E50" s="15">
-        <v>2422056</v>
+        <v>2821127</v>
       </c>
       <c r="F50" s="15">
-        <v>2821127</v>
+        <v>0</v>
       </c>
       <c r="G50" s="15">
-        <v>2799145</v>
+        <v>3112697</v>
       </c>
       <c r="H50" s="15">
-        <v>3112697</v>
+        <v>4361059</v>
       </c>
       <c r="I50" s="15">
-        <v>4361059</v>
-      </c>
-    </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.25">
+        <v>4501698</v>
+      </c>
+    </row>
+    <row r="51" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B51" s="8" t="s">
         <v>36</v>
       </c>
@@ -1626,7 +1661,7 @@
       <c r="H51" s="9"/>
       <c r="I51" s="9"/>
     </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B52" s="10" t="s">
         <v>11</v>
       </c>
@@ -1635,22 +1670,22 @@
       </c>
       <c r="D52" s="11"/>
       <c r="E52" s="11">
-        <v>153434</v>
-      </c>
-      <c r="F52" s="11">
         <v>209487</v>
       </c>
+      <c r="F52" s="11" t="s">
+        <v>13</v>
+      </c>
       <c r="G52" s="11">
-        <v>163243</v>
+        <v>302916</v>
       </c>
       <c r="H52" s="11">
-        <v>302916</v>
+        <v>340541</v>
       </c>
       <c r="I52" s="11">
-        <v>340541</v>
-      </c>
-    </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.25">
+        <v>298673</v>
+      </c>
+    </row>
+    <row r="53" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B53" s="12" t="s">
         <v>25</v>
       </c>
@@ -1659,13 +1694,13 @@
       </c>
       <c r="D53" s="13"/>
       <c r="E53" s="13">
-        <v>1</v>
-      </c>
-      <c r="F53" s="13">
         <v>59916</v>
       </c>
+      <c r="F53" s="13" t="s">
+        <v>13</v>
+      </c>
       <c r="G53" s="13">
-        <v>51026</v>
+        <v>0</v>
       </c>
       <c r="H53" s="13">
         <v>0</v>
@@ -1674,7 +1709,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B54" s="10" t="s">
         <v>18</v>
       </c>
@@ -1685,20 +1720,20 @@
       <c r="E54" s="11">
         <v>0</v>
       </c>
-      <c r="F54" s="11">
-        <v>0</v>
+      <c r="F54" s="11" t="s">
+        <v>13</v>
       </c>
       <c r="G54" s="11">
         <v>0</v>
       </c>
       <c r="H54" s="11">
-        <v>0</v>
+        <v>20305</v>
       </c>
       <c r="I54" s="11">
-        <v>20305</v>
-      </c>
-    </row>
-    <row r="55" spans="2:9" x14ac:dyDescent="0.25">
+        <v>1528555</v>
+      </c>
+    </row>
+    <row r="55" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B55" s="12" t="s">
         <v>26</v>
       </c>
@@ -1707,22 +1742,22 @@
       </c>
       <c r="D55" s="13"/>
       <c r="E55" s="13" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F55" s="13" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G55" s="13" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H55" s="13" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I55" s="13" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="56" spans="2:9" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="56" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B56" s="10" t="s">
         <v>20</v>
       </c>
@@ -1731,44 +1766,44 @@
       </c>
       <c r="D56" s="11"/>
       <c r="E56" s="11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F56" s="11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G56" s="11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H56" s="11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I56" s="11" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="57" spans="2:9" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="57" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B57" s="16" t="s">
         <v>27</v>
       </c>
       <c r="C57" s="17"/>
       <c r="D57" s="17"/>
       <c r="E57" s="17">
-        <v>153435</v>
+        <v>269403</v>
       </c>
       <c r="F57" s="17">
-        <v>269403</v>
+        <v>0</v>
       </c>
       <c r="G57" s="17">
-        <v>214269</v>
+        <v>302916</v>
       </c>
       <c r="H57" s="17">
-        <v>302916</v>
+        <v>360846</v>
       </c>
       <c r="I57" s="17">
-        <v>360846</v>
-      </c>
-    </row>
-    <row r="58" spans="2:9" x14ac:dyDescent="0.25">
+        <v>1827228</v>
+      </c>
+    </row>
+    <row r="58" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B58" s="18" t="s">
         <v>37</v>
       </c>
@@ -1780,7 +1815,7 @@
       <c r="H58" s="19"/>
       <c r="I58" s="19"/>
     </row>
-    <row r="59" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B59" s="14" t="s">
         <v>29</v>
       </c>
@@ -1802,7 +1837,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B60" s="16" t="s">
         <v>30</v>
       </c>
@@ -1811,22 +1846,22 @@
       </c>
       <c r="D60" s="17"/>
       <c r="E60" s="17" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F60" s="17" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G60" s="17" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H60" s="17" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I60" s="17" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="61" spans="2:9" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="61" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B61" s="14" t="s">
         <v>31</v>
       </c>
@@ -1837,8 +1872,8 @@
       <c r="E61" s="15">
         <v>0</v>
       </c>
-      <c r="F61" s="15">
-        <v>0</v>
+      <c r="F61" s="15" t="s">
+        <v>13</v>
       </c>
       <c r="G61" s="15">
         <v>0</v>
@@ -1850,29 +1885,29 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B62" s="16" t="s">
         <v>32</v>
       </c>
       <c r="C62" s="17"/>
       <c r="D62" s="17"/>
       <c r="E62" s="17">
-        <v>2575491</v>
+        <v>3090530</v>
       </c>
       <c r="F62" s="17">
-        <v>3090530</v>
+        <v>0</v>
       </c>
       <c r="G62" s="17">
-        <v>3013414</v>
+        <v>3415613</v>
       </c>
       <c r="H62" s="17">
-        <v>3415613</v>
+        <v>4721905</v>
       </c>
       <c r="I62" s="17">
-        <v>4721905</v>
-      </c>
-    </row>
-    <row r="63" spans="2:9" x14ac:dyDescent="0.25">
+        <v>6328926</v>
+      </c>
+    </row>
+    <row r="63" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
       <c r="D63" s="1"/>
@@ -1882,7 +1917,7 @@
       <c r="H63" s="1"/>
       <c r="I63" s="1"/>
     </row>
-    <row r="64" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
       <c r="D64" s="1"/>
@@ -1892,7 +1927,7 @@
       <c r="H64" s="1"/>
       <c r="I64" s="1"/>
     </row>
-    <row r="65" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
       <c r="D65" s="1"/>
@@ -1902,7 +1937,7 @@
       <c r="H65" s="1"/>
       <c r="I65" s="1"/>
     </row>
-    <row r="66" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B66" s="7" t="s">
         <v>38</v>
       </c>
@@ -1924,7 +1959,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="67" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
       <c r="D67" s="1"/>
@@ -1934,7 +1969,7 @@
       <c r="H67" s="1"/>
       <c r="I67" s="1"/>
     </row>
-    <row r="68" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B68" s="8" t="s">
         <v>39</v>
       </c>
@@ -1946,7 +1981,7 @@
       <c r="H68" s="9"/>
       <c r="I68" s="9"/>
     </row>
-    <row r="69" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B69" s="10" t="s">
         <v>11</v>
       </c>
@@ -1955,70 +1990,70 @@
       </c>
       <c r="D69" s="11"/>
       <c r="E69" s="11">
-        <v>10593870</v>
+        <v>48303318</v>
       </c>
       <c r="F69" s="11">
-        <v>48303318</v>
+        <v>9196120</v>
       </c>
       <c r="G69" s="11">
-        <v>9196120</v>
+        <v>11968095</v>
       </c>
       <c r="H69" s="11">
-        <v>11968095</v>
+        <v>15296714</v>
       </c>
       <c r="I69" s="11">
-        <v>15296714</v>
-      </c>
-    </row>
-    <row r="70" spans="2:9" x14ac:dyDescent="0.25">
+        <v>15206066</v>
+      </c>
+    </row>
+    <row r="70" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B70" s="12" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C70" s="13" t="s">
         <v>40</v>
       </c>
       <c r="D70" s="13"/>
       <c r="E70" s="13">
-        <v>5609413</v>
+        <v>4607028</v>
       </c>
       <c r="F70" s="13">
-        <v>4607028</v>
+        <v>4585143</v>
       </c>
       <c r="G70" s="13">
-        <v>4585143</v>
+        <v>5518117</v>
       </c>
       <c r="H70" s="13">
-        <v>5518117</v>
+        <v>7540282</v>
       </c>
       <c r="I70" s="13">
-        <v>7540282</v>
-      </c>
-    </row>
-    <row r="71" spans="2:9" x14ac:dyDescent="0.25">
+        <v>6544520</v>
+      </c>
+    </row>
+    <row r="71" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B71" s="10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C71" s="11" t="s">
         <v>40</v>
       </c>
       <c r="D71" s="11"/>
       <c r="E71" s="11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F71" s="11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G71" s="11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H71" s="11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I71" s="11" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="72" spans="2:9" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="72" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B72" s="12" t="s">
         <v>16</v>
       </c>
@@ -2027,22 +2062,22 @@
       </c>
       <c r="D72" s="13"/>
       <c r="E72" s="13" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F72" s="13" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G72" s="13" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H72" s="13" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I72" s="13" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="73" spans="2:9" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="73" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B73" s="10" t="s">
         <v>17</v>
       </c>
@@ -2051,22 +2086,22 @@
       </c>
       <c r="D73" s="11"/>
       <c r="E73" s="11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F73" s="11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G73" s="11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H73" s="11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I73" s="11" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="74" spans="2:9" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="74" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B74" s="12" t="s">
         <v>18</v>
       </c>
@@ -2075,22 +2110,22 @@
       </c>
       <c r="D74" s="13"/>
       <c r="E74" s="13" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F74" s="13" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G74" s="13" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H74" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="I74" s="13" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="75" spans="2:9" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+      <c r="I74" s="13">
+        <v>3203175</v>
+      </c>
+    </row>
+    <row r="75" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B75" s="10" t="s">
         <v>19</v>
       </c>
@@ -2099,22 +2134,22 @@
       </c>
       <c r="D75" s="11"/>
       <c r="E75" s="11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F75" s="11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G75" s="11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H75" s="11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I75" s="11" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="76" spans="2:9" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="76" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B76" s="12" t="s">
         <v>20</v>
       </c>
@@ -2123,22 +2158,22 @@
       </c>
       <c r="D76" s="13"/>
       <c r="E76" s="13" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F76" s="13" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G76" s="13" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H76" s="13" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I76" s="13" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="77" spans="2:9" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="77" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B77" s="10" t="s">
         <v>21</v>
       </c>
@@ -2147,22 +2182,22 @@
       </c>
       <c r="D77" s="11"/>
       <c r="E77" s="11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F77" s="11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G77" s="11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H77" s="11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I77" s="11" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="78" spans="2:9" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="78" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B78" s="12" t="s">
         <v>22</v>
       </c>
@@ -2171,22 +2206,22 @@
       </c>
       <c r="D78" s="13"/>
       <c r="E78" s="13" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F78" s="13" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G78" s="13" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H78" s="13" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I78" s="13" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="79" spans="2:9" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="79" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B79" s="8" t="s">
         <v>41</v>
       </c>
@@ -2198,7 +2233,7 @@
       <c r="H79" s="9"/>
       <c r="I79" s="9"/>
     </row>
-    <row r="80" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B80" s="10" t="s">
         <v>11</v>
       </c>
@@ -2207,22 +2242,22 @@
       </c>
       <c r="D80" s="11"/>
       <c r="E80" s="11">
-        <v>11717886</v>
+        <v>15402323</v>
       </c>
       <c r="F80" s="11">
-        <v>15402323</v>
+        <v>12206681</v>
       </c>
       <c r="G80" s="11">
-        <v>12206681</v>
+        <v>15427349</v>
       </c>
       <c r="H80" s="11">
-        <v>15427349</v>
+        <v>20105148</v>
       </c>
       <c r="I80" s="11">
-        <v>20105148</v>
-      </c>
-    </row>
-    <row r="81" spans="2:9" x14ac:dyDescent="0.25">
+        <v>19586399</v>
+      </c>
+    </row>
+    <row r="81" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B81" s="12" t="s">
         <v>25</v>
       </c>
@@ -2230,23 +2265,23 @@
         <v>40</v>
       </c>
       <c r="D81" s="13"/>
-      <c r="E81" s="13" t="s">
-        <v>15</v>
+      <c r="E81" s="13">
+        <v>9796599</v>
       </c>
       <c r="F81" s="13">
-        <v>9796599</v>
-      </c>
-      <c r="G81" s="13">
         <v>10339653</v>
       </c>
+      <c r="G81" s="13" t="s">
+        <v>13</v>
+      </c>
       <c r="H81" s="13" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I81" s="13" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="82" spans="2:9" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="82" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B82" s="10" t="s">
         <v>18</v>
       </c>
@@ -2255,22 +2290,22 @@
       </c>
       <c r="D82" s="11"/>
       <c r="E82" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="F82" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="G82" s="11">
+        <v>13</v>
+      </c>
+      <c r="F82" s="11">
         <v>4414770</v>
       </c>
-      <c r="H82" s="11" t="s">
-        <v>15</v>
+      <c r="G82" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="H82" s="11">
+        <v>8294526</v>
       </c>
       <c r="I82" s="11">
-        <v>8294526</v>
-      </c>
-    </row>
-    <row r="83" spans="2:9" x14ac:dyDescent="0.25">
+        <v>8370644</v>
+      </c>
+    </row>
+    <row r="83" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B83" s="12" t="s">
         <v>26</v>
       </c>
@@ -2279,22 +2314,22 @@
       </c>
       <c r="D83" s="13"/>
       <c r="E83" s="13" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F83" s="13" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G83" s="13" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H83" s="13" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I83" s="13" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="84" spans="2:9" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="84" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B84" s="10" t="s">
         <v>20</v>
       </c>
@@ -2303,22 +2338,22 @@
       </c>
       <c r="D84" s="11"/>
       <c r="E84" s="11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F84" s="11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G84" s="11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H84" s="11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I84" s="11" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="85" spans="2:9" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="85" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B85" s="1"/>
       <c r="C85" s="1"/>
       <c r="D85" s="1"/>
@@ -2328,7 +2363,7 @@
       <c r="H85" s="1"/>
       <c r="I85" s="1"/>
     </row>
-    <row r="86" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B86" s="1"/>
       <c r="C86" s="1"/>
       <c r="D86" s="1"/>
@@ -2338,7 +2373,7 @@
       <c r="H86" s="1"/>
       <c r="I86" s="1"/>
     </row>
-    <row r="87" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
       <c r="D87" s="1"/>
@@ -2348,7 +2383,7 @@
       <c r="H87" s="1"/>
       <c r="I87" s="1"/>
     </row>
-    <row r="88" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B88" s="7" t="s">
         <v>42</v>
       </c>
@@ -2370,7 +2405,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="89" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
       <c r="D89" s="1"/>
@@ -2380,7 +2415,7 @@
       <c r="H89" s="1"/>
       <c r="I89" s="1"/>
     </row>
-    <row r="90" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B90" s="8" t="s">
         <v>43</v>
       </c>
@@ -2392,7 +2427,7 @@
       <c r="H90" s="9"/>
       <c r="I90" s="9"/>
     </row>
-    <row r="91" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B91" s="10" t="s">
         <v>11</v>
       </c>
@@ -2401,70 +2436,70 @@
       </c>
       <c r="D91" s="11"/>
       <c r="E91" s="11">
-        <v>-207804</v>
+        <v>-99801</v>
       </c>
       <c r="F91" s="11">
-        <v>-99801</v>
+        <v>-549792</v>
       </c>
       <c r="G91" s="11">
-        <v>-549792</v>
+        <v>-325686</v>
       </c>
       <c r="H91" s="11">
-        <v>-325686</v>
+        <v>-430365</v>
       </c>
       <c r="I91" s="11">
-        <v>-430365</v>
-      </c>
-    </row>
-    <row r="92" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-521819</v>
+      </c>
+    </row>
+    <row r="92" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B92" s="12" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C92" s="13" t="s">
         <v>35</v>
       </c>
       <c r="D92" s="13"/>
       <c r="E92" s="13">
-        <v>-735563</v>
+        <v>-665084</v>
       </c>
       <c r="F92" s="13">
-        <v>-665084</v>
+        <v>-1500928</v>
       </c>
       <c r="G92" s="13">
-        <v>-1500928</v>
+        <v>-1130992</v>
       </c>
       <c r="H92" s="13">
-        <v>-1130992</v>
+        <v>-1186273</v>
       </c>
       <c r="I92" s="13">
-        <v>-1186273</v>
-      </c>
-    </row>
-    <row r="93" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-1423495</v>
+      </c>
+    </row>
+    <row r="93" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B93" s="10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C93" s="11" t="s">
         <v>35</v>
       </c>
       <c r="D93" s="11"/>
       <c r="E93" s="11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F93" s="11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G93" s="11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H93" s="11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I93" s="11" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="94" spans="2:9" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="94" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B94" s="12" t="s">
         <v>16</v>
       </c>
@@ -2473,22 +2508,22 @@
       </c>
       <c r="D94" s="13"/>
       <c r="E94" s="13" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F94" s="13" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G94" s="13" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H94" s="13" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I94" s="13" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="95" spans="2:9" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="95" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B95" s="10" t="s">
         <v>17</v>
       </c>
@@ -2497,22 +2532,22 @@
       </c>
       <c r="D95" s="11"/>
       <c r="E95" s="11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F95" s="11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G95" s="11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H95" s="11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I95" s="11" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="96" spans="2:9" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="96" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B96" s="12" t="s">
         <v>18</v>
       </c>
@@ -2521,22 +2556,22 @@
       </c>
       <c r="D96" s="13"/>
       <c r="E96" s="13" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F96" s="13" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G96" s="13" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H96" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="I96" s="13" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="97" spans="2:9" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+      <c r="I96" s="13">
+        <v>-669</v>
+      </c>
+    </row>
+    <row r="97" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B97" s="10" t="s">
         <v>19</v>
       </c>
@@ -2545,22 +2580,22 @@
       </c>
       <c r="D97" s="11"/>
       <c r="E97" s="11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F97" s="11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G97" s="11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H97" s="11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I97" s="11" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="98" spans="2:9" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="98" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B98" s="12" t="s">
         <v>20</v>
       </c>
@@ -2569,22 +2604,22 @@
       </c>
       <c r="D98" s="13"/>
       <c r="E98" s="13" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F98" s="13" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G98" s="13" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H98" s="13" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I98" s="13" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="99" spans="2:9" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="99" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B99" s="10" t="s">
         <v>21</v>
       </c>
@@ -2593,22 +2628,22 @@
       </c>
       <c r="D99" s="11"/>
       <c r="E99" s="11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F99" s="11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G99" s="11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H99" s="11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I99" s="11" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="100" spans="2:9" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="100" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B100" s="12" t="s">
         <v>22</v>
       </c>
@@ -2617,44 +2652,44 @@
       </c>
       <c r="D100" s="13"/>
       <c r="E100" s="13" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F100" s="13" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G100" s="13" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H100" s="13" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I100" s="13" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="101" spans="2:9" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="101" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B101" s="14" t="s">
         <v>44</v>
       </c>
       <c r="C101" s="15"/>
       <c r="D101" s="15"/>
       <c r="E101" s="15">
-        <v>-943367</v>
+        <v>-764885</v>
       </c>
       <c r="F101" s="15">
-        <v>-764885</v>
+        <v>-2050720</v>
       </c>
       <c r="G101" s="15">
-        <v>-2050720</v>
+        <v>-1456678</v>
       </c>
       <c r="H101" s="15">
-        <v>-1456678</v>
+        <v>-1616638</v>
       </c>
       <c r="I101" s="15">
-        <v>-1616638</v>
-      </c>
-    </row>
-    <row r="102" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-1945983</v>
+      </c>
+    </row>
+    <row r="102" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B102" s="8" t="s">
         <v>45</v>
       </c>
@@ -2666,7 +2701,7 @@
       <c r="H102" s="9"/>
       <c r="I102" s="9"/>
     </row>
-    <row r="103" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B103" s="10" t="s">
         <v>11</v>
       </c>
@@ -2675,22 +2710,22 @@
       </c>
       <c r="D103" s="11"/>
       <c r="E103" s="11">
-        <v>-61173</v>
+        <v>-278487</v>
       </c>
       <c r="F103" s="11">
-        <v>-278487</v>
+        <v>121030</v>
       </c>
       <c r="G103" s="11">
-        <v>121030</v>
+        <v>-101921</v>
       </c>
       <c r="H103" s="11">
-        <v>-101921</v>
+        <v>-106378</v>
       </c>
       <c r="I103" s="11">
-        <v>-106378</v>
-      </c>
-    </row>
-    <row r="104" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-118912</v>
+      </c>
+    </row>
+    <row r="104" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B104" s="12" t="s">
         <v>25</v>
       </c>
@@ -2699,13 +2734,13 @@
       </c>
       <c r="D104" s="13"/>
       <c r="E104" s="13">
-        <v>-5930</v>
+        <v>11713</v>
       </c>
       <c r="F104" s="13">
-        <v>11713</v>
+        <v>-59282</v>
       </c>
       <c r="G104" s="13">
-        <v>-59282</v>
+        <v>0</v>
       </c>
       <c r="H104" s="13">
         <v>0</v>
@@ -2714,7 +2749,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B105" s="10" t="s">
         <v>18</v>
       </c>
@@ -2723,22 +2758,22 @@
       </c>
       <c r="D105" s="11"/>
       <c r="E105" s="11">
-        <v>-66271</v>
+        <v>-291981</v>
       </c>
       <c r="F105" s="11">
-        <v>-291981</v>
+        <v>261500</v>
       </c>
       <c r="G105" s="11">
-        <v>261500</v>
+        <v>0</v>
       </c>
       <c r="H105" s="11">
-        <v>0</v>
+        <v>-5288</v>
       </c>
       <c r="I105" s="11">
-        <v>-5288</v>
-      </c>
-    </row>
-    <row r="106" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-381148</v>
+      </c>
+    </row>
+    <row r="106" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B106" s="12" t="s">
         <v>26</v>
       </c>
@@ -2747,22 +2782,22 @@
       </c>
       <c r="D106" s="13"/>
       <c r="E106" s="13" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F106" s="13" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G106" s="13" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H106" s="13" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I106" s="13" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="107" spans="2:9" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="107" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B107" s="10" t="s">
         <v>20</v>
       </c>
@@ -2771,44 +2806,44 @@
       </c>
       <c r="D107" s="11"/>
       <c r="E107" s="11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F107" s="11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G107" s="11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H107" s="11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I107" s="11" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="108" spans="2:9" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="108" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B108" s="16" t="s">
         <v>46</v>
       </c>
       <c r="C108" s="17"/>
       <c r="D108" s="17"/>
       <c r="E108" s="17">
-        <v>-133374</v>
+        <v>-558755</v>
       </c>
       <c r="F108" s="17">
-        <v>-558755</v>
+        <v>323248</v>
       </c>
       <c r="G108" s="17">
-        <v>323248</v>
+        <v>-101921</v>
       </c>
       <c r="H108" s="17">
-        <v>-101921</v>
+        <v>-111666</v>
       </c>
       <c r="I108" s="17">
-        <v>-111666</v>
-      </c>
-    </row>
-    <row r="109" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-500060</v>
+      </c>
+    </row>
+    <row r="109" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B109" s="18" t="s">
         <v>47</v>
       </c>
@@ -2820,7 +2855,7 @@
       <c r="H109" s="19"/>
       <c r="I109" s="19"/>
     </row>
-    <row r="110" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B110" s="14" t="s">
         <v>48</v>
       </c>
@@ -2842,7 +2877,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B111" s="16" t="s">
         <v>30</v>
       </c>
@@ -2851,22 +2886,22 @@
       </c>
       <c r="D111" s="17"/>
       <c r="E111" s="17" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F111" s="17" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G111" s="17" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H111" s="17" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I111" s="17" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="112" spans="2:9" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="112" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B112" s="14" t="s">
         <v>31</v>
       </c>
@@ -2890,29 +2925,29 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B113" s="16" t="s">
         <v>32</v>
       </c>
       <c r="C113" s="17"/>
       <c r="D113" s="17"/>
       <c r="E113" s="17">
-        <v>-1076741</v>
+        <v>-1323640</v>
       </c>
       <c r="F113" s="17">
-        <v>-1323640</v>
+        <v>-1727472</v>
       </c>
       <c r="G113" s="17">
-        <v>-1727472</v>
+        <v>-1558599</v>
       </c>
       <c r="H113" s="17">
-        <v>-1558599</v>
+        <v>-1728304</v>
       </c>
       <c r="I113" s="17">
-        <v>-1728304</v>
-      </c>
-    </row>
-    <row r="114" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-2446043</v>
+      </c>
+    </row>
+    <row r="114" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B114" s="1"/>
       <c r="C114" s="1"/>
       <c r="D114" s="1"/>
@@ -2922,7 +2957,7 @@
       <c r="H114" s="1"/>
       <c r="I114" s="1"/>
     </row>
-    <row r="115" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B115" s="1"/>
       <c r="C115" s="1"/>
       <c r="D115" s="1"/>
@@ -2932,7 +2967,7 @@
       <c r="H115" s="1"/>
       <c r="I115" s="1"/>
     </row>
-    <row r="116" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B116" s="1"/>
       <c r="C116" s="1"/>
       <c r="D116" s="1"/>
@@ -2942,7 +2977,7 @@
       <c r="H116" s="1"/>
       <c r="I116" s="1"/>
     </row>
-    <row r="117" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="117" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B117" s="7" t="s">
         <v>49</v>
       </c>
@@ -2964,7 +2999,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="118" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="118" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B118" s="1"/>
       <c r="C118" s="1"/>
       <c r="D118" s="1"/>
@@ -2974,7 +3009,7 @@
       <c r="H118" s="1"/>
       <c r="I118" s="1"/>
     </row>
-    <row r="119" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="119" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B119" s="8" t="s">
         <v>50</v>
       </c>
@@ -2986,7 +3021,7 @@
       <c r="H119" s="9"/>
       <c r="I119" s="9"/>
     </row>
-    <row r="120" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="120" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B120" s="10" t="s">
         <v>11</v>
       </c>
@@ -2995,70 +3030,70 @@
       </c>
       <c r="D120" s="11"/>
       <c r="E120" s="11">
-        <v>182792</v>
+        <v>532103</v>
       </c>
       <c r="F120" s="11">
-        <v>532103</v>
+        <v>24955</v>
       </c>
       <c r="G120" s="11">
-        <v>24955</v>
+        <v>348028</v>
       </c>
       <c r="H120" s="11">
-        <v>348028</v>
+        <v>580113</v>
       </c>
       <c r="I120" s="11">
-        <v>580113</v>
-      </c>
-    </row>
-    <row r="121" spans="2:9" x14ac:dyDescent="0.25">
+        <v>488913</v>
+      </c>
+    </row>
+    <row r="121" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B121" s="12" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C121" s="13" t="s">
         <v>35</v>
       </c>
       <c r="D121" s="13"/>
       <c r="E121" s="13">
-        <v>1295897</v>
+        <v>1524139</v>
       </c>
       <c r="F121" s="13">
-        <v>1524139</v>
+        <v>723470</v>
       </c>
       <c r="G121" s="13">
-        <v>723470</v>
+        <v>1307991</v>
       </c>
       <c r="H121" s="13">
-        <v>1307991</v>
+        <v>2164308</v>
       </c>
       <c r="I121" s="13">
-        <v>2164308</v>
-      </c>
-    </row>
-    <row r="122" spans="2:9" x14ac:dyDescent="0.25">
+        <v>2066462</v>
+      </c>
+    </row>
+    <row r="122" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B122" s="10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C122" s="11" t="s">
         <v>35</v>
       </c>
       <c r="D122" s="11"/>
       <c r="E122" s="11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F122" s="11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G122" s="11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H122" s="11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I122" s="11" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="123" spans="2:9" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="123" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B123" s="12" t="s">
         <v>16</v>
       </c>
@@ -3067,22 +3102,22 @@
       </c>
       <c r="D123" s="13"/>
       <c r="E123" s="13" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F123" s="13" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G123" s="13" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H123" s="13" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I123" s="13" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="124" spans="2:9" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="124" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B124" s="10" t="s">
         <v>17</v>
       </c>
@@ -3091,22 +3126,22 @@
       </c>
       <c r="D124" s="11"/>
       <c r="E124" s="11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F124" s="11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G124" s="11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H124" s="11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I124" s="11" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="125" spans="2:9" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="125" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B125" s="12" t="s">
         <v>18</v>
       </c>
@@ -3115,22 +3150,22 @@
       </c>
       <c r="D125" s="13"/>
       <c r="E125" s="13" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F125" s="13" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G125" s="13" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H125" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="I125" s="13" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="126" spans="2:9" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+      <c r="I125" s="13">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="126" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B126" s="10" t="s">
         <v>19</v>
       </c>
@@ -3139,22 +3174,22 @@
       </c>
       <c r="D126" s="11"/>
       <c r="E126" s="11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F126" s="11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G126" s="11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H126" s="11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I126" s="11" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="127" spans="2:9" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="127" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B127" s="12" t="s">
         <v>20</v>
       </c>
@@ -3163,22 +3198,22 @@
       </c>
       <c r="D127" s="13"/>
       <c r="E127" s="13" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F127" s="13" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G127" s="13" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H127" s="13" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I127" s="13" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="128" spans="2:9" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="128" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B128" s="10" t="s">
         <v>21</v>
       </c>
@@ -3187,22 +3222,22 @@
       </c>
       <c r="D128" s="11"/>
       <c r="E128" s="11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F128" s="11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G128" s="11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H128" s="11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I128" s="11" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="129" spans="2:9" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="129" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B129" s="12" t="s">
         <v>22</v>
       </c>
@@ -3211,44 +3246,44 @@
       </c>
       <c r="D129" s="13"/>
       <c r="E129" s="13" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F129" s="13" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G129" s="13" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H129" s="13" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I129" s="13" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="130" spans="2:9" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="130" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B130" s="14" t="s">
         <v>51</v>
       </c>
       <c r="C130" s="15"/>
       <c r="D130" s="15"/>
       <c r="E130" s="15">
-        <v>1478689</v>
+        <v>2056242</v>
       </c>
       <c r="F130" s="15">
-        <v>2056242</v>
+        <v>748425</v>
       </c>
       <c r="G130" s="15">
-        <v>748425</v>
+        <v>1656019</v>
       </c>
       <c r="H130" s="15">
-        <v>1656019</v>
+        <v>2744421</v>
       </c>
       <c r="I130" s="15">
-        <v>2744421</v>
-      </c>
-    </row>
-    <row r="131" spans="2:9" x14ac:dyDescent="0.25">
+        <v>2555715</v>
+      </c>
+    </row>
+    <row r="131" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B131" s="8" t="s">
         <v>52</v>
       </c>
@@ -3260,7 +3295,7 @@
       <c r="H131" s="9"/>
       <c r="I131" s="9"/>
     </row>
-    <row r="132" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="132" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B132" s="10" t="s">
         <v>11</v>
       </c>
@@ -3269,22 +3304,22 @@
       </c>
       <c r="D132" s="11"/>
       <c r="E132" s="11">
-        <v>92261</v>
+        <v>-23192</v>
       </c>
       <c r="F132" s="11">
-        <v>-23192</v>
+        <v>284273</v>
       </c>
       <c r="G132" s="11">
-        <v>284273</v>
+        <v>200995</v>
       </c>
       <c r="H132" s="11">
-        <v>200995</v>
+        <v>234163</v>
       </c>
       <c r="I132" s="11">
-        <v>234163</v>
-      </c>
-    </row>
-    <row r="133" spans="2:9" x14ac:dyDescent="0.25">
+        <v>179761</v>
+      </c>
+    </row>
+    <row r="133" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B133" s="12" t="s">
         <v>25</v>
       </c>
@@ -3293,13 +3328,13 @@
       </c>
       <c r="D133" s="13"/>
       <c r="E133" s="13">
-        <v>-5930</v>
+        <v>25821</v>
       </c>
       <c r="F133" s="13">
-        <v>25821</v>
+        <v>-8256</v>
       </c>
       <c r="G133" s="13">
-        <v>-8256</v>
+        <v>0</v>
       </c>
       <c r="H133" s="13">
         <v>0</v>
@@ -3308,7 +3343,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="134" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B134" s="10" t="s">
         <v>18</v>
       </c>
@@ -3317,22 +3352,22 @@
       </c>
       <c r="D134" s="11"/>
       <c r="E134" s="11">
-        <v>-66271</v>
+        <v>-291981</v>
       </c>
       <c r="F134" s="11">
-        <v>-291981</v>
+        <v>261500</v>
       </c>
       <c r="G134" s="11">
-        <v>261500</v>
+        <v>0</v>
       </c>
       <c r="H134" s="11">
-        <v>0</v>
+        <v>15017</v>
       </c>
       <c r="I134" s="11">
-        <v>15017</v>
-      </c>
-    </row>
-    <row r="135" spans="2:9" x14ac:dyDescent="0.25">
+        <v>1147407</v>
+      </c>
+    </row>
+    <row r="135" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B135" s="12" t="s">
         <v>26</v>
       </c>
@@ -3341,22 +3376,22 @@
       </c>
       <c r="D135" s="13"/>
       <c r="E135" s="13" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F135" s="13" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G135" s="13" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H135" s="13" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I135" s="13" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="136" spans="2:9" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="136" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B136" s="10" t="s">
         <v>20</v>
       </c>
@@ -3365,44 +3400,44 @@
       </c>
       <c r="D136" s="11"/>
       <c r="E136" s="11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F136" s="11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G136" s="11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H136" s="11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I136" s="11" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="137" spans="2:9" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="137" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B137" s="16" t="s">
         <v>53</v>
       </c>
       <c r="C137" s="17"/>
       <c r="D137" s="17"/>
       <c r="E137" s="17">
-        <v>20060</v>
+        <v>-289352</v>
       </c>
       <c r="F137" s="17">
-        <v>-289352</v>
+        <v>537517</v>
       </c>
       <c r="G137" s="17">
-        <v>537517</v>
+        <v>200995</v>
       </c>
       <c r="H137" s="17">
-        <v>200995</v>
+        <v>249180</v>
       </c>
       <c r="I137" s="17">
-        <v>249180</v>
-      </c>
-    </row>
-    <row r="138" spans="2:9" x14ac:dyDescent="0.25">
+        <v>1327168</v>
+      </c>
+    </row>
+    <row r="138" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B138" s="18" t="s">
         <v>54</v>
       </c>
@@ -3414,7 +3449,7 @@
       <c r="H138" s="19"/>
       <c r="I138" s="19"/>
     </row>
-    <row r="139" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="139" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B139" s="14" t="s">
         <v>55</v>
       </c>
@@ -3436,26 +3471,26 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="140" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B140" s="16" t="s">
         <v>32</v>
       </c>
       <c r="C140" s="17"/>
       <c r="D140" s="17"/>
       <c r="E140" s="17">
-        <v>1498749</v>
+        <v>1766890</v>
       </c>
       <c r="F140" s="17">
-        <v>1766890</v>
+        <v>1285942</v>
       </c>
       <c r="G140" s="17">
-        <v>1285942</v>
+        <v>1857014</v>
       </c>
       <c r="H140" s="17">
-        <v>1857014</v>
+        <v>2993601</v>
       </c>
       <c r="I140" s="17">
-        <v>2993601</v>
+        <v>3882883</v>
       </c>
     </row>
   </sheetData>

--- a/database/industries/siman/save/product/quarterly_seprated.xlsx
+++ b/database/industries/siman/save/product/quarterly_seprated.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\siman\save\product\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\siman\save\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E013DB9C-F854-4B9B-AC5A-7F801280D812}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2313C44E-D416-4A9B-A8E1-63D3DF30D046}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3684" yWindow="2748" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="501" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="771" uniqueCount="61">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -37,6 +37,21 @@
     <t>مقدار فروش</t>
   </si>
   <si>
+    <t>فصل دوم منتهی به 1399/06</t>
+  </si>
+  <si>
+    <t>فصل سوم منتهی به 1399/09</t>
+  </si>
+  <si>
+    <t>فصل چهارم منتهی به 1399/12</t>
+  </si>
+  <si>
+    <t>فصل اول منتهی به 1400/03</t>
+  </si>
+  <si>
+    <t>فصل دوم منتهی به 1400/06</t>
+  </si>
+  <si>
     <t>فصل سوم منتهی به 1400/09</t>
   </si>
   <si>
@@ -61,13 +76,13 @@
     <t>تن</t>
   </si>
   <si>
+    <t>سیمان خاکستری</t>
+  </si>
+  <si>
+    <t>سیمان سفید پاکتی 50 کیلویی</t>
+  </si>
+  <si>
     <t>-</t>
-  </si>
-  <si>
-    <t>سیمان خاکستری</t>
-  </si>
-  <si>
-    <t>سیمان سفید پاکتی 50 کیلویی</t>
   </si>
   <si>
     <t>سیمان سفید پاکتی 25 کیلویی</t>
@@ -666,16 +681,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:I140"/>
+  <dimension ref="B1:N140"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="9" width="20" customWidth="1"/>
+    <col min="2" max="14" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -684,8 +699,13 @@
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
-    </row>
-    <row r="2" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+    </row>
+    <row r="2" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -696,8 +716,13 @@
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
-    </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+    </row>
+    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -708,8 +733,13 @@
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
-    </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+    </row>
+    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -718,8 +748,13 @@
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
-    </row>
-    <row r="5" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+    </row>
+    <row r="5" spans="2:14" ht="42" x14ac:dyDescent="0.65">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -730,8 +765,13 @@
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
-    </row>
-    <row r="6" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="4"/>
+    </row>
+    <row r="6" spans="2:14" ht="42" x14ac:dyDescent="0.65">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -742,8 +782,13 @@
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
-    </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+      <c r="N6" s="4"/>
+    </row>
+    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -752,8 +797,13 @@
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
-    </row>
-    <row r="8" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+    </row>
+    <row r="8" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -774,8 +824,23 @@
       <c r="I8" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J8" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="K8" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="L8" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="M8" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="N8" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -784,10 +849,15 @@
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
-    </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+    </row>
+    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B10" s="8" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C10" s="9"/>
       <c r="D10" s="9"/>
@@ -796,272 +866,442 @@
       <c r="G10" s="9"/>
       <c r="H10" s="9"/>
       <c r="I10" s="9"/>
-    </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J10" s="9"/>
+      <c r="K10" s="9"/>
+      <c r="L10" s="9"/>
+      <c r="M10" s="9"/>
+      <c r="N10" s="9"/>
+    </row>
+    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B11" s="10" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D11" s="11"/>
       <c r="E11" s="11">
+        <v>66874</v>
+      </c>
+      <c r="F11" s="11">
+        <v>69067</v>
+      </c>
+      <c r="G11" s="11">
+        <v>56470</v>
+      </c>
+      <c r="H11" s="11">
+        <v>66349</v>
+      </c>
+      <c r="I11" s="11">
+        <v>36870</v>
+      </c>
+      <c r="J11" s="11">
         <v>13082</v>
       </c>
-      <c r="F11" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G11" s="11">
+      <c r="K11" s="11">
+        <v>106466</v>
+      </c>
+      <c r="L11" s="11">
         <v>56293</v>
       </c>
-      <c r="H11" s="11">
+      <c r="M11" s="11">
         <v>66059</v>
       </c>
-      <c r="I11" s="11">
+      <c r="N11" s="11">
         <v>66469</v>
       </c>
     </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B12" s="12" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D12" s="13"/>
       <c r="E12" s="13">
+        <v>481177</v>
+      </c>
+      <c r="F12" s="13">
+        <v>507082</v>
+      </c>
+      <c r="G12" s="13">
+        <v>377495</v>
+      </c>
+      <c r="H12" s="13">
+        <v>388611</v>
+      </c>
+      <c r="I12" s="13">
+        <v>362152</v>
+      </c>
+      <c r="J12" s="13">
         <v>475192</v>
       </c>
-      <c r="F12" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="G12" s="13">
+      <c r="K12" s="13">
+        <v>465020</v>
+      </c>
+      <c r="L12" s="13">
         <v>441996</v>
       </c>
-      <c r="H12" s="13">
+      <c r="M12" s="13">
         <v>444358</v>
       </c>
-      <c r="I12" s="13">
+      <c r="N12" s="13">
         <v>533264</v>
       </c>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B13" s="10" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D13" s="11"/>
       <c r="E13" s="11" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="F13" s="11" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="G13" s="11" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="H13" s="11" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="I13" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+      <c r="J13" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="K13" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="L13" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="M13" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="N13" s="11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B14" s="12" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C14" s="13" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D14" s="13"/>
       <c r="E14" s="13" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="F14" s="13" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="G14" s="13" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="H14" s="13" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="I14" s="13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+      <c r="J14" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="K14" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="L14" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="M14" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="N14" s="13" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B15" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15" s="11" t="s">
         <v>17</v>
-      </c>
-      <c r="C15" s="11" t="s">
-        <v>12</v>
       </c>
       <c r="D15" s="11"/>
       <c r="E15" s="11" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="F15" s="11" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="G15" s="11" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="H15" s="11" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="I15" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+      <c r="J15" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="K15" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="L15" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="M15" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="N15" s="11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B16" s="12" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C16" s="13" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D16" s="13"/>
       <c r="E16" s="13" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="F16" s="13" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="G16" s="13" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="H16" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="I16" s="13">
+        <v>20</v>
+      </c>
+      <c r="I16" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="J16" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="K16" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="L16" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="M16" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="N16" s="13">
         <v>315</v>
       </c>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B17" s="10" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D17" s="11"/>
       <c r="E17" s="11" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="F17" s="11" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="G17" s="11" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="H17" s="11" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="I17" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+      <c r="J17" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="K17" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="L17" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="M17" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="N17" s="11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B18" s="12" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C18" s="13" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D18" s="13"/>
       <c r="E18" s="13" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="F18" s="13" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="G18" s="13" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="H18" s="13" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="I18" s="13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+      <c r="J18" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="K18" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="L18" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="M18" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="N18" s="13" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B19" s="10" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D19" s="11"/>
       <c r="E19" s="11" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="F19" s="11" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="G19" s="11" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="H19" s="11" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="I19" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+      <c r="J19" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="K19" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="L19" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="M19" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="N19" s="11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B20" s="12" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C20" s="13" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D20" s="13"/>
       <c r="E20" s="13" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="F20" s="13" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="G20" s="13" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="H20" s="13" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="I20" s="13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+      <c r="J20" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="K20" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="L20" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="M20" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="N20" s="13" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B21" s="14" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C21" s="15"/>
       <c r="D21" s="15"/>
       <c r="E21" s="15">
+        <v>548051</v>
+      </c>
+      <c r="F21" s="15">
+        <v>576149</v>
+      </c>
+      <c r="G21" s="15">
+        <v>433965</v>
+      </c>
+      <c r="H21" s="15">
+        <v>454960</v>
+      </c>
+      <c r="I21" s="15">
+        <v>399022</v>
+      </c>
+      <c r="J21" s="15">
         <v>488274</v>
       </c>
-      <c r="F21" s="15">
-        <v>0</v>
-      </c>
-      <c r="G21" s="15">
+      <c r="K21" s="15">
+        <v>571486</v>
+      </c>
+      <c r="L21" s="15">
         <v>498288</v>
       </c>
-      <c r="H21" s="15">
+      <c r="M21" s="15">
         <v>510416</v>
       </c>
-      <c r="I21" s="15">
+      <c r="N21" s="15">
         <v>600048</v>
       </c>
     </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B22" s="8" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C22" s="9"/>
       <c r="D22" s="9"/>
@@ -1070,152 +1310,247 @@
       <c r="G22" s="9"/>
       <c r="H22" s="9"/>
       <c r="I22" s="9"/>
-    </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J22" s="9"/>
+      <c r="K22" s="9"/>
+      <c r="L22" s="9"/>
+      <c r="M22" s="9"/>
+      <c r="N22" s="9"/>
+    </row>
+    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B23" s="10" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C23" s="11" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D23" s="11"/>
       <c r="E23" s="11">
+        <v>-135738</v>
+      </c>
+      <c r="F23" s="11">
+        <v>16222</v>
+      </c>
+      <c r="G23" s="11">
+        <v>19025</v>
+      </c>
+      <c r="H23" s="11">
+        <v>15106</v>
+      </c>
+      <c r="I23" s="11">
+        <v>13094</v>
+      </c>
+      <c r="J23" s="11">
         <v>13601</v>
       </c>
-      <c r="F23" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G23" s="11">
+      <c r="K23" s="11">
+        <v>12723</v>
+      </c>
+      <c r="L23" s="11">
         <v>19635</v>
       </c>
-      <c r="H23" s="11">
+      <c r="M23" s="11">
         <v>16938</v>
       </c>
-      <c r="I23" s="11">
+      <c r="N23" s="11">
         <v>15249</v>
       </c>
     </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B24" s="12" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C24" s="13" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D24" s="13"/>
       <c r="E24" s="13">
+        <v>0</v>
+      </c>
+      <c r="F24" s="13">
+        <v>277</v>
+      </c>
+      <c r="G24" s="13">
+        <v>67174</v>
+      </c>
+      <c r="H24" s="13">
+        <v>4999</v>
+      </c>
+      <c r="I24" s="13">
+        <v>0</v>
+      </c>
+      <c r="J24" s="13">
         <v>6116</v>
       </c>
-      <c r="F24" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="G24" s="13">
-        <v>0</v>
-      </c>
-      <c r="H24" s="13">
-        <v>0</v>
-      </c>
-      <c r="I24" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="K24" s="13">
+        <v>4614</v>
+      </c>
+      <c r="L24" s="13">
+        <v>0</v>
+      </c>
+      <c r="M24" s="13">
+        <v>0</v>
+      </c>
+      <c r="N24" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B25" s="10" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C25" s="11" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D25" s="11"/>
       <c r="E25" s="11">
-        <v>0</v>
-      </c>
-      <c r="F25" s="11" t="s">
-        <v>13</v>
+        <v>137700</v>
+      </c>
+      <c r="F25" s="11">
+        <v>116468</v>
       </c>
       <c r="G25" s="11">
-        <v>0</v>
+        <v>124967</v>
       </c>
       <c r="H25" s="11">
+        <v>161205</v>
+      </c>
+      <c r="I25" s="11">
+        <v>0</v>
+      </c>
+      <c r="J25" s="11">
+        <v>0</v>
+      </c>
+      <c r="K25" s="11">
+        <v>0</v>
+      </c>
+      <c r="L25" s="11">
+        <v>0</v>
+      </c>
+      <c r="M25" s="11">
         <v>2448</v>
       </c>
-      <c r="I25" s="11">
+      <c r="N25" s="11">
         <v>182609</v>
       </c>
     </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B26" s="12" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C26" s="13" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D26" s="13"/>
       <c r="E26" s="13" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="F26" s="13" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="G26" s="13" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="H26" s="13" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="I26" s="13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+      <c r="J26" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="K26" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="L26" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="M26" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="N26" s="13" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="27" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B27" s="10" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C27" s="11" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D27" s="11"/>
       <c r="E27" s="11" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="F27" s="11" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="G27" s="11" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="H27" s="11" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="I27" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+      <c r="J27" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="K27" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="L27" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="M27" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="N27" s="11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B28" s="16" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C28" s="17"/>
       <c r="D28" s="17"/>
       <c r="E28" s="17">
+        <v>1962</v>
+      </c>
+      <c r="F28" s="17">
+        <v>132967</v>
+      </c>
+      <c r="G28" s="17">
+        <v>211166</v>
+      </c>
+      <c r="H28" s="17">
+        <v>181310</v>
+      </c>
+      <c r="I28" s="17">
+        <v>13094</v>
+      </c>
+      <c r="J28" s="17">
         <v>19717</v>
       </c>
-      <c r="F28" s="17">
-        <v>0</v>
-      </c>
-      <c r="G28" s="17">
+      <c r="K28" s="17">
+        <v>17337</v>
+      </c>
+      <c r="L28" s="17">
         <v>19635</v>
       </c>
-      <c r="H28" s="17">
+      <c r="M28" s="17">
         <v>19386</v>
       </c>
-      <c r="I28" s="17">
+      <c r="N28" s="17">
         <v>197858</v>
       </c>
     </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B29" s="18" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C29" s="19"/>
       <c r="D29" s="19"/>
@@ -1224,10 +1559,15 @@
       <c r="G29" s="19"/>
       <c r="H29" s="19"/>
       <c r="I29" s="19"/>
-    </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J29" s="19"/>
+      <c r="K29" s="19"/>
+      <c r="L29" s="19"/>
+      <c r="M29" s="19"/>
+      <c r="N29" s="19"/>
+    </row>
+    <row r="30" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B30" s="14" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C30" s="15"/>
       <c r="D30" s="15"/>
@@ -1246,40 +1586,70 @@
       <c r="I30" s="15">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J30" s="15">
+        <v>0</v>
+      </c>
+      <c r="K30" s="15">
+        <v>0</v>
+      </c>
+      <c r="L30" s="15">
+        <v>0</v>
+      </c>
+      <c r="M30" s="15">
+        <v>0</v>
+      </c>
+      <c r="N30" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B31" s="16" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C31" s="17"/>
       <c r="D31" s="17"/>
-      <c r="E31" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="F31" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="G31" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="H31" s="17" t="s">
-        <v>13</v>
+      <c r="E31" s="17">
+        <v>0</v>
+      </c>
+      <c r="F31" s="17">
+        <v>0</v>
+      </c>
+      <c r="G31" s="17">
+        <v>0</v>
+      </c>
+      <c r="H31" s="17">
+        <v>0</v>
       </c>
       <c r="I31" s="17" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+      <c r="J31" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="K31" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="L31" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="M31" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="N31" s="17" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="32" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B32" s="14" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C32" s="15"/>
       <c r="D32" s="15"/>
       <c r="E32" s="15">
         <v>0</v>
       </c>
-      <c r="F32" s="15" t="s">
-        <v>13</v>
+      <c r="F32" s="15">
+        <v>0</v>
       </c>
       <c r="G32" s="15">
         <v>0</v>
@@ -1290,30 +1660,60 @@
       <c r="I32" s="15">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J32" s="15">
+        <v>0</v>
+      </c>
+      <c r="K32" s="15">
+        <v>0</v>
+      </c>
+      <c r="L32" s="15">
+        <v>0</v>
+      </c>
+      <c r="M32" s="15">
+        <v>0</v>
+      </c>
+      <c r="N32" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B33" s="16" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C33" s="17"/>
       <c r="D33" s="17"/>
       <c r="E33" s="17">
+        <v>550013</v>
+      </c>
+      <c r="F33" s="17">
+        <v>709116</v>
+      </c>
+      <c r="G33" s="17">
+        <v>645131</v>
+      </c>
+      <c r="H33" s="17">
+        <v>636270</v>
+      </c>
+      <c r="I33" s="17">
+        <v>412116</v>
+      </c>
+      <c r="J33" s="17">
         <v>507991</v>
       </c>
-      <c r="F33" s="17">
-        <v>0</v>
-      </c>
-      <c r="G33" s="17">
+      <c r="K33" s="17">
+        <v>588823</v>
+      </c>
+      <c r="L33" s="17">
         <v>517923</v>
       </c>
-      <c r="H33" s="17">
+      <c r="M33" s="17">
         <v>529802</v>
       </c>
-      <c r="I33" s="17">
+      <c r="N33" s="17">
         <v>797906</v>
       </c>
     </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
@@ -1322,8 +1722,13 @@
       <c r="G34" s="1"/>
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
-    </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J34" s="1"/>
+      <c r="K34" s="1"/>
+      <c r="L34" s="1"/>
+      <c r="M34" s="1"/>
+      <c r="N34" s="1"/>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
@@ -1332,8 +1737,13 @@
       <c r="G35" s="1"/>
       <c r="H35" s="1"/>
       <c r="I35" s="1"/>
-    </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J35" s="1"/>
+      <c r="K35" s="1"/>
+      <c r="L35" s="1"/>
+      <c r="M35" s="1"/>
+      <c r="N35" s="1"/>
+    </row>
+    <row r="36" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
@@ -1342,10 +1752,15 @@
       <c r="G36" s="1"/>
       <c r="H36" s="1"/>
       <c r="I36" s="1"/>
-    </row>
-    <row r="37" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J36" s="1"/>
+      <c r="K36" s="1"/>
+      <c r="L36" s="1"/>
+      <c r="M36" s="1"/>
+      <c r="N36" s="1"/>
+    </row>
+    <row r="37" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B37" s="7" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C37" s="6"/>
       <c r="D37" s="6"/>
@@ -1364,8 +1779,23 @@
       <c r="I37" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J37" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="K37" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="L37" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="M37" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="N37" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="38" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
@@ -1374,10 +1804,15 @@
       <c r="G38" s="1"/>
       <c r="H38" s="1"/>
       <c r="I38" s="1"/>
-    </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J38" s="1"/>
+      <c r="K38" s="1"/>
+      <c r="L38" s="1"/>
+      <c r="M38" s="1"/>
+      <c r="N38" s="1"/>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B39" s="8" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="C39" s="9"/>
       <c r="D39" s="9"/>
@@ -1386,272 +1821,442 @@
       <c r="G39" s="9"/>
       <c r="H39" s="9"/>
       <c r="I39" s="9"/>
-    </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J39" s="9"/>
+      <c r="K39" s="9"/>
+      <c r="L39" s="9"/>
+      <c r="M39" s="9"/>
+      <c r="N39" s="9"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B40" s="10" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C40" s="11" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="D40" s="11"/>
       <c r="E40" s="11">
+        <v>316543</v>
+      </c>
+      <c r="F40" s="11">
+        <v>348613</v>
+      </c>
+      <c r="G40" s="11">
+        <v>297969</v>
+      </c>
+      <c r="H40" s="11">
+        <v>451345</v>
+      </c>
+      <c r="I40" s="11">
+        <v>390596</v>
+      </c>
+      <c r="J40" s="11">
         <v>631904</v>
       </c>
-      <c r="F40" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G40" s="11">
+      <c r="K40" s="11">
+        <v>574747</v>
+      </c>
+      <c r="L40" s="11">
         <v>673714</v>
       </c>
-      <c r="H40" s="11">
+      <c r="M40" s="11">
         <v>1010478</v>
       </c>
-      <c r="I40" s="11">
+      <c r="N40" s="11">
         <v>1010732</v>
       </c>
     </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B41" s="12" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C41" s="13" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="D41" s="13"/>
       <c r="E41" s="13">
+        <v>1202462</v>
+      </c>
+      <c r="F41" s="13">
+        <v>1268237</v>
+      </c>
+      <c r="G41" s="13">
+        <v>1060013</v>
+      </c>
+      <c r="H41" s="13">
+        <v>1308281</v>
+      </c>
+      <c r="I41" s="13">
+        <v>2031460</v>
+      </c>
+      <c r="J41" s="13">
         <v>2189223</v>
       </c>
-      <c r="F41" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="G41" s="13">
+      <c r="K41" s="13">
+        <v>2224398</v>
+      </c>
+      <c r="L41" s="13">
         <v>2438983</v>
       </c>
-      <c r="H41" s="13">
+      <c r="M41" s="13">
         <v>3350581</v>
       </c>
-      <c r="I41" s="13">
+      <c r="N41" s="13">
         <v>3489957</v>
       </c>
     </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B42" s="10" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C42" s="11" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="D42" s="11"/>
       <c r="E42" s="11" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="F42" s="11" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="G42" s="11" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="H42" s="11" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="I42" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+      <c r="J42" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="K42" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="L42" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="M42" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="N42" s="11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B43" s="12" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C43" s="13" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="D43" s="13"/>
       <c r="E43" s="13" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="F43" s="13" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="G43" s="13" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="H43" s="13" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="I43" s="13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+      <c r="J43" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="K43" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="L43" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="M43" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="N43" s="13" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B44" s="10" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C44" s="11" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="D44" s="11"/>
       <c r="E44" s="11" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="F44" s="11" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="G44" s="11" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="H44" s="11" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="I44" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+      <c r="J44" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="K44" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="L44" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="M44" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="N44" s="11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B45" s="12" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C45" s="13" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="D45" s="13"/>
       <c r="E45" s="13" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="F45" s="13" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="G45" s="13" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="H45" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="I45" s="13">
+        <v>20</v>
+      </c>
+      <c r="I45" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="J45" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="K45" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="L45" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="M45" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="N45" s="13">
         <v>1009</v>
       </c>
     </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B46" s="10" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C46" s="11" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="D46" s="11"/>
       <c r="E46" s="11" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="F46" s="11" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="G46" s="11" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="H46" s="11" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="I46" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+      <c r="J46" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="K46" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="L46" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="M46" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="N46" s="11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B47" s="12" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C47" s="13" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="D47" s="13"/>
       <c r="E47" s="13" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="F47" s="13" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="G47" s="13" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="H47" s="13" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="I47" s="13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+      <c r="J47" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="K47" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="L47" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="M47" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="N47" s="13" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B48" s="10" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C48" s="11" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="D48" s="11"/>
       <c r="E48" s="11" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="F48" s="11" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="G48" s="11" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="H48" s="11" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="I48" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+      <c r="J48" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="K48" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="L48" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="M48" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="N48" s="11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="49" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B49" s="12" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C49" s="13" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="D49" s="13"/>
       <c r="E49" s="13" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="F49" s="13" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="G49" s="13" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="H49" s="13" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="I49" s="13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+      <c r="J49" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="K49" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="L49" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="M49" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="N49" s="13" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="50" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B50" s="14" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C50" s="15"/>
       <c r="D50" s="15"/>
       <c r="E50" s="15">
+        <v>1519005</v>
+      </c>
+      <c r="F50" s="15">
+        <v>1616850</v>
+      </c>
+      <c r="G50" s="15">
+        <v>1357982</v>
+      </c>
+      <c r="H50" s="15">
+        <v>1759626</v>
+      </c>
+      <c r="I50" s="15">
+        <v>2422056</v>
+      </c>
+      <c r="J50" s="15">
         <v>2821127</v>
       </c>
-      <c r="F50" s="15">
-        <v>0</v>
-      </c>
-      <c r="G50" s="15">
+      <c r="K50" s="15">
+        <v>2799145</v>
+      </c>
+      <c r="L50" s="15">
         <v>3112697</v>
       </c>
-      <c r="H50" s="15">
+      <c r="M50" s="15">
         <v>4361059</v>
       </c>
-      <c r="I50" s="15">
+      <c r="N50" s="15">
         <v>4501698</v>
       </c>
     </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B51" s="8" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="C51" s="9"/>
       <c r="D51" s="9"/>
@@ -1660,152 +2265,247 @@
       <c r="G51" s="9"/>
       <c r="H51" s="9"/>
       <c r="I51" s="9"/>
-    </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J51" s="9"/>
+      <c r="K51" s="9"/>
+      <c r="L51" s="9"/>
+      <c r="M51" s="9"/>
+      <c r="N51" s="9"/>
+    </row>
+    <row r="52" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B52" s="10" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C52" s="11" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="D52" s="11"/>
       <c r="E52" s="11">
+        <v>-172529</v>
+      </c>
+      <c r="F52" s="11">
+        <v>182308</v>
+      </c>
+      <c r="G52" s="11">
+        <v>197626</v>
+      </c>
+      <c r="H52" s="11">
+        <v>154608</v>
+      </c>
+      <c r="I52" s="11">
+        <v>153434</v>
+      </c>
+      <c r="J52" s="11">
         <v>209487</v>
       </c>
-      <c r="F52" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G52" s="11">
+      <c r="K52" s="11">
+        <v>163243</v>
+      </c>
+      <c r="L52" s="11">
         <v>302916</v>
       </c>
-      <c r="H52" s="11">
+      <c r="M52" s="11">
         <v>340541</v>
       </c>
-      <c r="I52" s="11">
+      <c r="N52" s="11">
         <v>298673</v>
       </c>
     </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B53" s="12" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C53" s="13" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="D53" s="13"/>
       <c r="E53" s="13">
+        <v>0</v>
+      </c>
+      <c r="F53" s="13">
+        <v>2591</v>
+      </c>
+      <c r="G53" s="13">
+        <v>0</v>
+      </c>
+      <c r="H53" s="13">
+        <v>45808</v>
+      </c>
+      <c r="I53" s="13">
+        <v>1</v>
+      </c>
+      <c r="J53" s="13">
         <v>59916</v>
       </c>
-      <c r="F53" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="G53" s="13">
-        <v>0</v>
-      </c>
-      <c r="H53" s="13">
-        <v>0</v>
-      </c>
-      <c r="I53" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="K53" s="13">
+        <v>51026</v>
+      </c>
+      <c r="L53" s="13">
+        <v>0</v>
+      </c>
+      <c r="M53" s="13">
+        <v>0</v>
+      </c>
+      <c r="N53" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B54" s="10" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C54" s="11" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="D54" s="11"/>
       <c r="E54" s="11">
-        <v>0</v>
-      </c>
-      <c r="F54" s="11" t="s">
-        <v>13</v>
+        <v>293852</v>
+      </c>
+      <c r="F54" s="11">
+        <v>388677</v>
       </c>
       <c r="G54" s="11">
-        <v>0</v>
+        <v>542162</v>
       </c>
       <c r="H54" s="11">
+        <v>711683</v>
+      </c>
+      <c r="I54" s="11">
+        <v>0</v>
+      </c>
+      <c r="J54" s="11">
+        <v>0</v>
+      </c>
+      <c r="K54" s="11">
+        <v>0</v>
+      </c>
+      <c r="L54" s="11">
+        <v>0</v>
+      </c>
+      <c r="M54" s="11">
         <v>20305</v>
       </c>
-      <c r="I54" s="11">
+      <c r="N54" s="11">
         <v>1528555</v>
       </c>
     </row>
-    <row r="55" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B55" s="12" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C55" s="13" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="D55" s="13"/>
       <c r="E55" s="13" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="F55" s="13" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="G55" s="13" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="H55" s="13" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="I55" s="13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="56" spans="2:9" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+      <c r="J55" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="K55" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="L55" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="M55" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="N55" s="13" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="56" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B56" s="10" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C56" s="11" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="D56" s="11"/>
       <c r="E56" s="11" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="F56" s="11" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="G56" s="11" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="H56" s="11" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="I56" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="57" spans="2:9" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+      <c r="J56" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="K56" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="L56" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="M56" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="N56" s="11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="57" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B57" s="16" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C57" s="17"/>
       <c r="D57" s="17"/>
       <c r="E57" s="17">
+        <v>121323</v>
+      </c>
+      <c r="F57" s="17">
+        <v>573576</v>
+      </c>
+      <c r="G57" s="17">
+        <v>739788</v>
+      </c>
+      <c r="H57" s="17">
+        <v>912099</v>
+      </c>
+      <c r="I57" s="17">
+        <v>153435</v>
+      </c>
+      <c r="J57" s="17">
         <v>269403</v>
       </c>
-      <c r="F57" s="17">
-        <v>0</v>
-      </c>
-      <c r="G57" s="17">
+      <c r="K57" s="17">
+        <v>214269</v>
+      </c>
+      <c r="L57" s="17">
         <v>302916</v>
       </c>
-      <c r="H57" s="17">
+      <c r="M57" s="17">
         <v>360846</v>
       </c>
-      <c r="I57" s="17">
+      <c r="N57" s="17">
         <v>1827228</v>
       </c>
     </row>
-    <row r="58" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B58" s="18" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="C58" s="19"/>
       <c r="D58" s="19"/>
@@ -1814,10 +2514,15 @@
       <c r="G58" s="19"/>
       <c r="H58" s="19"/>
       <c r="I58" s="19"/>
-    </row>
-    <row r="59" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J58" s="19"/>
+      <c r="K58" s="19"/>
+      <c r="L58" s="19"/>
+      <c r="M58" s="19"/>
+      <c r="N58" s="19"/>
+    </row>
+    <row r="59" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B59" s="14" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C59" s="15"/>
       <c r="D59" s="15"/>
@@ -1836,47 +2541,77 @@
       <c r="I59" s="15">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J59" s="15">
+        <v>0</v>
+      </c>
+      <c r="K59" s="15">
+        <v>0</v>
+      </c>
+      <c r="L59" s="15">
+        <v>0</v>
+      </c>
+      <c r="M59" s="15">
+        <v>0</v>
+      </c>
+      <c r="N59" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B60" s="16" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C60" s="17" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="D60" s="17"/>
-      <c r="E60" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="F60" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="G60" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="H60" s="17" t="s">
-        <v>13</v>
+      <c r="E60" s="17">
+        <v>0</v>
+      </c>
+      <c r="F60" s="17">
+        <v>0</v>
+      </c>
+      <c r="G60" s="17">
+        <v>0</v>
+      </c>
+      <c r="H60" s="17">
+        <v>0</v>
       </c>
       <c r="I60" s="17" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="61" spans="2:9" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+      <c r="J60" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="K60" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="L60" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="M60" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="N60" s="17" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="61" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B61" s="14" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C61" s="15" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="D61" s="15"/>
       <c r="E61" s="15">
-        <v>0</v>
-      </c>
-      <c r="F61" s="15" t="s">
-        <v>13</v>
+        <v>-109209</v>
+      </c>
+      <c r="F61" s="15">
+        <v>0</v>
       </c>
       <c r="G61" s="15">
-        <v>0</v>
+        <v>-110226</v>
       </c>
       <c r="H61" s="15">
         <v>0</v>
@@ -1884,30 +2619,60 @@
       <c r="I61" s="15">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J61" s="15">
+        <v>0</v>
+      </c>
+      <c r="K61" s="15">
+        <v>0</v>
+      </c>
+      <c r="L61" s="15">
+        <v>0</v>
+      </c>
+      <c r="M61" s="15">
+        <v>0</v>
+      </c>
+      <c r="N61" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B62" s="16" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C62" s="17"/>
       <c r="D62" s="17"/>
       <c r="E62" s="17">
+        <v>1531119</v>
+      </c>
+      <c r="F62" s="17">
+        <v>2190426</v>
+      </c>
+      <c r="G62" s="17">
+        <v>1987544</v>
+      </c>
+      <c r="H62" s="17">
+        <v>2671725</v>
+      </c>
+      <c r="I62" s="17">
+        <v>2575491</v>
+      </c>
+      <c r="J62" s="17">
         <v>3090530</v>
       </c>
-      <c r="F62" s="17">
-        <v>0</v>
-      </c>
-      <c r="G62" s="17">
+      <c r="K62" s="17">
+        <v>3013414</v>
+      </c>
+      <c r="L62" s="17">
         <v>3415613</v>
       </c>
-      <c r="H62" s="17">
+      <c r="M62" s="17">
         <v>4721905</v>
       </c>
-      <c r="I62" s="17">
+      <c r="N62" s="17">
         <v>6328926</v>
       </c>
     </row>
-    <row r="63" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
       <c r="D63" s="1"/>
@@ -1916,8 +2681,13 @@
       <c r="G63" s="1"/>
       <c r="H63" s="1"/>
       <c r="I63" s="1"/>
-    </row>
-    <row r="64" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J63" s="1"/>
+      <c r="K63" s="1"/>
+      <c r="L63" s="1"/>
+      <c r="M63" s="1"/>
+      <c r="N63" s="1"/>
+    </row>
+    <row r="64" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
       <c r="D64" s="1"/>
@@ -1926,8 +2696,13 @@
       <c r="G64" s="1"/>
       <c r="H64" s="1"/>
       <c r="I64" s="1"/>
-    </row>
-    <row r="65" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J64" s="1"/>
+      <c r="K64" s="1"/>
+      <c r="L64" s="1"/>
+      <c r="M64" s="1"/>
+      <c r="N64" s="1"/>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
       <c r="D65" s="1"/>
@@ -1936,10 +2711,15 @@
       <c r="G65" s="1"/>
       <c r="H65" s="1"/>
       <c r="I65" s="1"/>
-    </row>
-    <row r="66" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J65" s="1"/>
+      <c r="K65" s="1"/>
+      <c r="L65" s="1"/>
+      <c r="M65" s="1"/>
+      <c r="N65" s="1"/>
+    </row>
+    <row r="66" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B66" s="7" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="C66" s="6"/>
       <c r="D66" s="6"/>
@@ -1958,8 +2738,23 @@
       <c r="I66" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="67" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J66" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="K66" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="L66" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="M66" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="N66" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
       <c r="D67" s="1"/>
@@ -1968,10 +2763,15 @@
       <c r="G67" s="1"/>
       <c r="H67" s="1"/>
       <c r="I67" s="1"/>
-    </row>
-    <row r="68" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J67" s="1"/>
+      <c r="K67" s="1"/>
+      <c r="L67" s="1"/>
+      <c r="M67" s="1"/>
+      <c r="N67" s="1"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B68" s="8" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="C68" s="9"/>
       <c r="D68" s="9"/>
@@ -1980,250 +2780,405 @@
       <c r="G68" s="9"/>
       <c r="H68" s="9"/>
       <c r="I68" s="9"/>
-    </row>
-    <row r="69" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J68" s="9"/>
+      <c r="K68" s="9"/>
+      <c r="L68" s="9"/>
+      <c r="M68" s="9"/>
+      <c r="N68" s="9"/>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B69" s="10" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C69" s="11" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="D69" s="11"/>
       <c r="E69" s="11">
+        <v>4733424</v>
+      </c>
+      <c r="F69" s="11">
+        <v>5047461</v>
+      </c>
+      <c r="G69" s="11">
+        <v>5276589</v>
+      </c>
+      <c r="H69" s="11">
+        <v>6802589</v>
+      </c>
+      <c r="I69" s="11">
+        <v>10593870</v>
+      </c>
+      <c r="J69" s="11">
         <v>48303318</v>
       </c>
-      <c r="F69" s="11">
+      <c r="K69" s="11">
         <v>9196120</v>
       </c>
-      <c r="G69" s="11">
+      <c r="L69" s="11">
         <v>11968095</v>
       </c>
-      <c r="H69" s="11">
+      <c r="M69" s="11">
         <v>15296714</v>
       </c>
-      <c r="I69" s="11">
+      <c r="N69" s="11">
         <v>15206066</v>
       </c>
     </row>
-    <row r="70" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B70" s="12" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C70" s="13" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="D70" s="13"/>
       <c r="E70" s="13">
+        <v>2499001</v>
+      </c>
+      <c r="F70" s="13">
+        <v>2501049</v>
+      </c>
+      <c r="G70" s="13">
+        <v>2808019</v>
+      </c>
+      <c r="H70" s="13">
+        <v>3366557</v>
+      </c>
+      <c r="I70" s="13">
+        <v>5609413</v>
+      </c>
+      <c r="J70" s="13">
         <v>4607028</v>
       </c>
-      <c r="F70" s="13">
+      <c r="K70" s="13">
         <v>4585143</v>
       </c>
-      <c r="G70" s="13">
+      <c r="L70" s="13">
         <v>5518117</v>
       </c>
-      <c r="H70" s="13">
+      <c r="M70" s="13">
         <v>7540282</v>
       </c>
-      <c r="I70" s="13">
+      <c r="N70" s="13">
         <v>6544520</v>
       </c>
     </row>
-    <row r="71" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B71" s="10" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C71" s="11" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="D71" s="11"/>
       <c r="E71" s="11" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="F71" s="11" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="G71" s="11" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="H71" s="11" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="I71" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="72" spans="2:9" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+      <c r="J71" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="K71" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="L71" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="M71" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="N71" s="11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B72" s="12" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C72" s="13" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="D72" s="13"/>
       <c r="E72" s="13" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="F72" s="13" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="G72" s="13" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="H72" s="13" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="I72" s="13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="73" spans="2:9" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+      <c r="J72" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="K72" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="L72" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="M72" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="N72" s="13" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B73" s="10" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C73" s="11" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="D73" s="11"/>
       <c r="E73" s="11" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="F73" s="11" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="G73" s="11" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="H73" s="11" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="I73" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="74" spans="2:9" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+      <c r="J73" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="K73" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="L73" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="M73" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="N73" s="11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B74" s="12" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C74" s="13" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="D74" s="13"/>
       <c r="E74" s="13" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="F74" s="13" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="G74" s="13" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="H74" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="I74" s="13">
+        <v>20</v>
+      </c>
+      <c r="I74" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="J74" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="K74" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="L74" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="M74" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="N74" s="13">
         <v>3203175</v>
       </c>
     </row>
-    <row r="75" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B75" s="10" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C75" s="11" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="D75" s="11"/>
       <c r="E75" s="11" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="F75" s="11" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="G75" s="11" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="H75" s="11" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="I75" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="76" spans="2:9" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+      <c r="J75" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="K75" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="L75" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="M75" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="N75" s="11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B76" s="12" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C76" s="13" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="D76" s="13"/>
       <c r="E76" s="13" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="F76" s="13" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="G76" s="13" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="H76" s="13" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="I76" s="13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="77" spans="2:9" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+      <c r="J76" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="K76" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="L76" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="M76" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="N76" s="13" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B77" s="10" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C77" s="11" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="D77" s="11"/>
       <c r="E77" s="11" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="F77" s="11" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="G77" s="11" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="H77" s="11" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="I77" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="78" spans="2:9" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+      <c r="J77" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="K77" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="L77" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="M77" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="N77" s="11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="78" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B78" s="12" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C78" s="13" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="D78" s="13"/>
       <c r="E78" s="13" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="F78" s="13" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="G78" s="13" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="H78" s="13" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="I78" s="13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="79" spans="2:9" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+      <c r="J78" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="K78" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="L78" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="M78" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="N78" s="13" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B79" s="8" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="C79" s="9"/>
       <c r="D79" s="9"/>
@@ -2232,128 +3187,208 @@
       <c r="G79" s="9"/>
       <c r="H79" s="9"/>
       <c r="I79" s="9"/>
-    </row>
-    <row r="80" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J79" s="9"/>
+      <c r="K79" s="9"/>
+      <c r="L79" s="9"/>
+      <c r="M79" s="9"/>
+      <c r="N79" s="9"/>
+    </row>
+    <row r="80" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B80" s="10" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C80" s="11" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="D80" s="11"/>
       <c r="E80" s="11">
+        <v>1271044</v>
+      </c>
+      <c r="F80" s="11">
+        <v>11238318</v>
+      </c>
+      <c r="G80" s="11">
+        <v>10387700</v>
+      </c>
+      <c r="H80" s="11">
+        <v>10234874</v>
+      </c>
+      <c r="I80" s="11">
+        <v>11717886</v>
+      </c>
+      <c r="J80" s="11">
         <v>15402323</v>
       </c>
-      <c r="F80" s="11">
+      <c r="K80" s="11">
         <v>12206681</v>
       </c>
-      <c r="G80" s="11">
+      <c r="L80" s="11">
         <v>15427349</v>
       </c>
-      <c r="H80" s="11">
+      <c r="M80" s="11">
         <v>20105148</v>
       </c>
-      <c r="I80" s="11">
+      <c r="N80" s="11">
         <v>19586399</v>
       </c>
     </row>
-    <row r="81" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="81" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B81" s="12" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C81" s="13" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="D81" s="13"/>
-      <c r="E81" s="13">
+      <c r="E81" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="F81" s="13">
+        <v>9353791</v>
+      </c>
+      <c r="G81" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="H81" s="13">
+        <v>9163433</v>
+      </c>
+      <c r="I81" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="J81" s="13">
         <v>9796599</v>
       </c>
-      <c r="F81" s="13">
+      <c r="K81" s="13">
         <v>10339653</v>
       </c>
-      <c r="G81" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="H81" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="I81" s="13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="82" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="L81" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="M81" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="N81" s="13" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="82" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B82" s="10" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C82" s="11" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="D82" s="11"/>
-      <c r="E82" s="11" t="s">
-        <v>13</v>
+      <c r="E82" s="11">
+        <v>2134001</v>
       </c>
       <c r="F82" s="11">
+        <v>3337200</v>
+      </c>
+      <c r="G82" s="11">
+        <v>4338441</v>
+      </c>
+      <c r="H82" s="11">
         <v>4414770</v>
       </c>
-      <c r="G82" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H82" s="11">
+      <c r="I82" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="J82" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="K82" s="11">
+        <v>4414770</v>
+      </c>
+      <c r="L82" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="M82" s="11">
         <v>8294526</v>
       </c>
-      <c r="I82" s="11">
+      <c r="N82" s="11">
         <v>8370644</v>
       </c>
     </row>
-    <row r="83" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="83" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B83" s="12" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C83" s="13" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="D83" s="13"/>
       <c r="E83" s="13" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="F83" s="13" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="G83" s="13" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="H83" s="13" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="I83" s="13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="84" spans="2:9" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+      <c r="J83" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="K83" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="L83" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="M83" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="N83" s="13" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="84" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B84" s="10" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C84" s="11" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="D84" s="11"/>
       <c r="E84" s="11" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="F84" s="11" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="G84" s="11" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="H84" s="11" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="I84" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="85" spans="2:9" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+      <c r="J84" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="K84" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="L84" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="M84" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="N84" s="11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="85" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B85" s="1"/>
       <c r="C85" s="1"/>
       <c r="D85" s="1"/>
@@ -2362,8 +3397,13 @@
       <c r="G85" s="1"/>
       <c r="H85" s="1"/>
       <c r="I85" s="1"/>
-    </row>
-    <row r="86" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J85" s="1"/>
+      <c r="K85" s="1"/>
+      <c r="L85" s="1"/>
+      <c r="M85" s="1"/>
+      <c r="N85" s="1"/>
+    </row>
+    <row r="86" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B86" s="1"/>
       <c r="C86" s="1"/>
       <c r="D86" s="1"/>
@@ -2372,8 +3412,13 @@
       <c r="G86" s="1"/>
       <c r="H86" s="1"/>
       <c r="I86" s="1"/>
-    </row>
-    <row r="87" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J86" s="1"/>
+      <c r="K86" s="1"/>
+      <c r="L86" s="1"/>
+      <c r="M86" s="1"/>
+      <c r="N86" s="1"/>
+    </row>
+    <row r="87" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
       <c r="D87" s="1"/>
@@ -2382,10 +3427,15 @@
       <c r="G87" s="1"/>
       <c r="H87" s="1"/>
       <c r="I87" s="1"/>
-    </row>
-    <row r="88" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J87" s="1"/>
+      <c r="K87" s="1"/>
+      <c r="L87" s="1"/>
+      <c r="M87" s="1"/>
+      <c r="N87" s="1"/>
+    </row>
+    <row r="88" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B88" s="7" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="C88" s="6"/>
       <c r="D88" s="6"/>
@@ -2404,8 +3454,23 @@
       <c r="I88" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="89" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J88" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="K88" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="L88" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="M88" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="N88" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="89" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
       <c r="D89" s="1"/>
@@ -2414,10 +3479,15 @@
       <c r="G89" s="1"/>
       <c r="H89" s="1"/>
       <c r="I89" s="1"/>
-    </row>
-    <row r="90" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J89" s="1"/>
+      <c r="K89" s="1"/>
+      <c r="L89" s="1"/>
+      <c r="M89" s="1"/>
+      <c r="N89" s="1"/>
+    </row>
+    <row r="90" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B90" s="8" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C90" s="9"/>
       <c r="D90" s="9"/>
@@ -2426,272 +3496,442 @@
       <c r="G90" s="9"/>
       <c r="H90" s="9"/>
       <c r="I90" s="9"/>
-    </row>
-    <row r="91" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J90" s="9"/>
+      <c r="K90" s="9"/>
+      <c r="L90" s="9"/>
+      <c r="M90" s="9"/>
+      <c r="N90" s="9"/>
+    </row>
+    <row r="91" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B91" s="10" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C91" s="11" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="D91" s="11"/>
       <c r="E91" s="11">
+        <v>-173292</v>
+      </c>
+      <c r="F91" s="11">
+        <v>-221104</v>
+      </c>
+      <c r="G91" s="11">
+        <v>-189290</v>
+      </c>
+      <c r="H91" s="11">
+        <v>-253909</v>
+      </c>
+      <c r="I91" s="11">
+        <v>-207804</v>
+      </c>
+      <c r="J91" s="11">
         <v>-99801</v>
       </c>
-      <c r="F91" s="11">
+      <c r="K91" s="11">
         <v>-549792</v>
       </c>
-      <c r="G91" s="11">
+      <c r="L91" s="11">
         <v>-325686</v>
       </c>
-      <c r="H91" s="11">
+      <c r="M91" s="11">
         <v>-430365</v>
       </c>
-      <c r="I91" s="11">
+      <c r="N91" s="11">
         <v>-521819</v>
       </c>
     </row>
-    <row r="92" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="92" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B92" s="12" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C92" s="13" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="D92" s="13"/>
       <c r="E92" s="13">
+        <v>-481670</v>
+      </c>
+      <c r="F92" s="13">
+        <v>-476589</v>
+      </c>
+      <c r="G92" s="13">
+        <v>-444630</v>
+      </c>
+      <c r="H92" s="13">
+        <v>-624044</v>
+      </c>
+      <c r="I92" s="13">
+        <v>-735563</v>
+      </c>
+      <c r="J92" s="13">
         <v>-665084</v>
       </c>
-      <c r="F92" s="13">
+      <c r="K92" s="13">
         <v>-1500928</v>
       </c>
-      <c r="G92" s="13">
+      <c r="L92" s="13">
         <v>-1130992</v>
       </c>
-      <c r="H92" s="13">
+      <c r="M92" s="13">
         <v>-1186273</v>
       </c>
-      <c r="I92" s="13">
+      <c r="N92" s="13">
         <v>-1423495</v>
       </c>
     </row>
-    <row r="93" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="93" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B93" s="10" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C93" s="11" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="D93" s="11"/>
       <c r="E93" s="11" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="F93" s="11" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="G93" s="11" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="H93" s="11" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="I93" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="94" spans="2:9" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+      <c r="J93" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="K93" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="L93" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="M93" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="N93" s="11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="94" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B94" s="12" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C94" s="13" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="D94" s="13"/>
       <c r="E94" s="13" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="F94" s="13" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="G94" s="13" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="H94" s="13" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="I94" s="13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="95" spans="2:9" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+      <c r="J94" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="K94" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="L94" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="M94" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="N94" s="13" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="95" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B95" s="10" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C95" s="11" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="D95" s="11"/>
       <c r="E95" s="11" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="F95" s="11" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="G95" s="11" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="H95" s="11" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="I95" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="96" spans="2:9" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+      <c r="J95" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="K95" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="L95" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="M95" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="N95" s="11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="96" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B96" s="12" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C96" s="13" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="D96" s="13"/>
       <c r="E96" s="13" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="F96" s="13" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="G96" s="13" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="H96" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="I96" s="13">
+        <v>20</v>
+      </c>
+      <c r="I96" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="J96" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="K96" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="L96" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="M96" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="N96" s="13">
         <v>-669</v>
       </c>
     </row>
-    <row r="97" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="97" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B97" s="10" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C97" s="11" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="D97" s="11"/>
       <c r="E97" s="11" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="F97" s="11" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="G97" s="11" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="H97" s="11" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="I97" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="98" spans="2:9" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+      <c r="J97" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="K97" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="L97" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="M97" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="N97" s="11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="98" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B98" s="12" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C98" s="13" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="D98" s="13"/>
       <c r="E98" s="13" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="F98" s="13" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="G98" s="13" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="H98" s="13" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="I98" s="13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="99" spans="2:9" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+      <c r="J98" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="K98" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="L98" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="M98" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="N98" s="13" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="99" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B99" s="10" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C99" s="11" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="D99" s="11"/>
       <c r="E99" s="11" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="F99" s="11" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="G99" s="11" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="H99" s="11" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="I99" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="100" spans="2:9" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+      <c r="J99" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="K99" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="L99" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="M99" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="N99" s="11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="100" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B100" s="12" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C100" s="13" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="D100" s="13"/>
       <c r="E100" s="13" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="F100" s="13" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="G100" s="13" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="H100" s="13" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="I100" s="13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="101" spans="2:9" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+      <c r="J100" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="K100" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="L100" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="M100" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="N100" s="13" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="101" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B101" s="14" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="C101" s="15"/>
       <c r="D101" s="15"/>
       <c r="E101" s="15">
+        <v>-654962</v>
+      </c>
+      <c r="F101" s="15">
+        <v>-697693</v>
+      </c>
+      <c r="G101" s="15">
+        <v>-633920</v>
+      </c>
+      <c r="H101" s="15">
+        <v>-877953</v>
+      </c>
+      <c r="I101" s="15">
+        <v>-943367</v>
+      </c>
+      <c r="J101" s="15">
         <v>-764885</v>
       </c>
-      <c r="F101" s="15">
+      <c r="K101" s="15">
         <v>-2050720</v>
       </c>
-      <c r="G101" s="15">
+      <c r="L101" s="15">
         <v>-1456678</v>
       </c>
-      <c r="H101" s="15">
+      <c r="M101" s="15">
         <v>-1616638</v>
       </c>
-      <c r="I101" s="15">
+      <c r="N101" s="15">
         <v>-1945983</v>
       </c>
     </row>
-    <row r="102" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="102" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B102" s="8" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="C102" s="9"/>
       <c r="D102" s="9"/>
@@ -2700,152 +3940,247 @@
       <c r="G102" s="9"/>
       <c r="H102" s="9"/>
       <c r="I102" s="9"/>
-    </row>
-    <row r="103" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J102" s="9"/>
+      <c r="K102" s="9"/>
+      <c r="L102" s="9"/>
+      <c r="M102" s="9"/>
+      <c r="N102" s="9"/>
+    </row>
+    <row r="103" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B103" s="10" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C103" s="11" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="D103" s="11"/>
       <c r="E103" s="11">
+        <v>-36119</v>
+      </c>
+      <c r="F103" s="11">
+        <v>-47520</v>
+      </c>
+      <c r="G103" s="11">
+        <v>-57642</v>
+      </c>
+      <c r="H103" s="11">
+        <v>-52577</v>
+      </c>
+      <c r="I103" s="11">
+        <v>-61173</v>
+      </c>
+      <c r="J103" s="11">
         <v>-278487</v>
       </c>
-      <c r="F103" s="11">
+      <c r="K103" s="11">
         <v>121030</v>
       </c>
-      <c r="G103" s="11">
+      <c r="L103" s="11">
         <v>-101921</v>
       </c>
-      <c r="H103" s="11">
+      <c r="M103" s="11">
         <v>-106378</v>
       </c>
-      <c r="I103" s="11">
+      <c r="N103" s="11">
         <v>-118912</v>
       </c>
     </row>
-    <row r="104" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="104" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B104" s="12" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C104" s="13" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="D104" s="13"/>
       <c r="E104" s="13">
+        <v>-3</v>
+      </c>
+      <c r="F104" s="13">
+        <v>-582</v>
+      </c>
+      <c r="G104" s="13">
+        <v>-45</v>
+      </c>
+      <c r="H104" s="13">
+        <v>-28433</v>
+      </c>
+      <c r="I104" s="13">
+        <v>-5930</v>
+      </c>
+      <c r="J104" s="13">
         <v>11713</v>
       </c>
-      <c r="F104" s="13">
+      <c r="K104" s="13">
         <v>-59282</v>
       </c>
-      <c r="G104" s="13">
-        <v>0</v>
-      </c>
-      <c r="H104" s="13">
-        <v>0</v>
-      </c>
-      <c r="I104" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="105" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="L104" s="13">
+        <v>0</v>
+      </c>
+      <c r="M104" s="13">
+        <v>0</v>
+      </c>
+      <c r="N104" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B105" s="10" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C105" s="11" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="D105" s="11"/>
       <c r="E105" s="11">
+        <v>2324</v>
+      </c>
+      <c r="F105" s="11">
+        <v>-84598</v>
+      </c>
+      <c r="G105" s="11">
+        <v>-100476</v>
+      </c>
+      <c r="H105" s="11">
+        <v>-113094</v>
+      </c>
+      <c r="I105" s="11">
+        <v>-66271</v>
+      </c>
+      <c r="J105" s="11">
         <v>-291981</v>
       </c>
-      <c r="F105" s="11">
+      <c r="K105" s="11">
         <v>261500</v>
       </c>
-      <c r="G105" s="11">
-        <v>0</v>
-      </c>
-      <c r="H105" s="11">
+      <c r="L105" s="11">
+        <v>0</v>
+      </c>
+      <c r="M105" s="11">
         <v>-5288</v>
       </c>
-      <c r="I105" s="11">
+      <c r="N105" s="11">
         <v>-381148</v>
       </c>
     </row>
-    <row r="106" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="106" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B106" s="12" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C106" s="13" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="D106" s="13"/>
       <c r="E106" s="13" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="F106" s="13" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="G106" s="13" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="H106" s="13" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="I106" s="13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="107" spans="2:9" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+      <c r="J106" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="K106" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="L106" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="M106" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="N106" s="13" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="107" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B107" s="10" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C107" s="11" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="D107" s="11"/>
       <c r="E107" s="11" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="F107" s="11" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="G107" s="11" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="H107" s="11" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="I107" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="108" spans="2:9" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+      <c r="J107" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="K107" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="L107" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="M107" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="N107" s="11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="108" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B108" s="16" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="C108" s="17"/>
       <c r="D108" s="17"/>
       <c r="E108" s="17">
+        <v>-33798</v>
+      </c>
+      <c r="F108" s="17">
+        <v>-132700</v>
+      </c>
+      <c r="G108" s="17">
+        <v>-158163</v>
+      </c>
+      <c r="H108" s="17">
+        <v>-194104</v>
+      </c>
+      <c r="I108" s="17">
+        <v>-133374</v>
+      </c>
+      <c r="J108" s="17">
         <v>-558755</v>
       </c>
-      <c r="F108" s="17">
+      <c r="K108" s="17">
         <v>323248</v>
       </c>
-      <c r="G108" s="17">
+      <c r="L108" s="17">
         <v>-101921</v>
       </c>
-      <c r="H108" s="17">
+      <c r="M108" s="17">
         <v>-111666</v>
       </c>
-      <c r="I108" s="17">
+      <c r="N108" s="17">
         <v>-500060</v>
       </c>
     </row>
-    <row r="109" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="109" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B109" s="18" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="C109" s="19"/>
       <c r="D109" s="19"/>
@@ -2854,10 +4189,15 @@
       <c r="G109" s="19"/>
       <c r="H109" s="19"/>
       <c r="I109" s="19"/>
-    </row>
-    <row r="110" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J109" s="19"/>
+      <c r="K109" s="19"/>
+      <c r="L109" s="19"/>
+      <c r="M109" s="19"/>
+      <c r="N109" s="19"/>
+    </row>
+    <row r="110" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B110" s="14" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="C110" s="15"/>
       <c r="D110" s="15"/>
@@ -2876,37 +4216,67 @@
       <c r="I110" s="15">
         <v>0</v>
       </c>
-    </row>
-    <row r="111" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J110" s="15">
+        <v>0</v>
+      </c>
+      <c r="K110" s="15">
+        <v>0</v>
+      </c>
+      <c r="L110" s="15">
+        <v>0</v>
+      </c>
+      <c r="M110" s="15">
+        <v>0</v>
+      </c>
+      <c r="N110" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B111" s="16" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C111" s="17" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="D111" s="17"/>
-      <c r="E111" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="F111" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="G111" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="H111" s="17" t="s">
-        <v>13</v>
+      <c r="E111" s="17">
+        <v>0</v>
+      </c>
+      <c r="F111" s="17">
+        <v>0</v>
+      </c>
+      <c r="G111" s="17">
+        <v>0</v>
+      </c>
+      <c r="H111" s="17">
+        <v>0</v>
       </c>
       <c r="I111" s="17" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="112" spans="2:9" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+      <c r="J111" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="K111" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="L111" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="M111" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="N111" s="17" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="112" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B112" s="14" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C112" s="15" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="D112" s="15"/>
       <c r="E112" s="15">
@@ -2924,30 +4294,60 @@
       <c r="I112" s="15">
         <v>0</v>
       </c>
-    </row>
-    <row r="113" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J112" s="15">
+        <v>0</v>
+      </c>
+      <c r="K112" s="15">
+        <v>0</v>
+      </c>
+      <c r="L112" s="15">
+        <v>0</v>
+      </c>
+      <c r="M112" s="15">
+        <v>0</v>
+      </c>
+      <c r="N112" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B113" s="16" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C113" s="17"/>
       <c r="D113" s="17"/>
       <c r="E113" s="17">
+        <v>-688760</v>
+      </c>
+      <c r="F113" s="17">
+        <v>-830393</v>
+      </c>
+      <c r="G113" s="17">
+        <v>-792083</v>
+      </c>
+      <c r="H113" s="17">
+        <v>-1072057</v>
+      </c>
+      <c r="I113" s="17">
+        <v>-1076741</v>
+      </c>
+      <c r="J113" s="17">
         <v>-1323640</v>
       </c>
-      <c r="F113" s="17">
+      <c r="K113" s="17">
         <v>-1727472</v>
       </c>
-      <c r="G113" s="17">
+      <c r="L113" s="17">
         <v>-1558599</v>
       </c>
-      <c r="H113" s="17">
+      <c r="M113" s="17">
         <v>-1728304</v>
       </c>
-      <c r="I113" s="17">
+      <c r="N113" s="17">
         <v>-2446043</v>
       </c>
     </row>
-    <row r="114" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="114" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B114" s="1"/>
       <c r="C114" s="1"/>
       <c r="D114" s="1"/>
@@ -2956,8 +4356,13 @@
       <c r="G114" s="1"/>
       <c r="H114" s="1"/>
       <c r="I114" s="1"/>
-    </row>
-    <row r="115" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J114" s="1"/>
+      <c r="K114" s="1"/>
+      <c r="L114" s="1"/>
+      <c r="M114" s="1"/>
+      <c r="N114" s="1"/>
+    </row>
+    <row r="115" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B115" s="1"/>
       <c r="C115" s="1"/>
       <c r="D115" s="1"/>
@@ -2966,8 +4371,13 @@
       <c r="G115" s="1"/>
       <c r="H115" s="1"/>
       <c r="I115" s="1"/>
-    </row>
-    <row r="116" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J115" s="1"/>
+      <c r="K115" s="1"/>
+      <c r="L115" s="1"/>
+      <c r="M115" s="1"/>
+      <c r="N115" s="1"/>
+    </row>
+    <row r="116" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B116" s="1"/>
       <c r="C116" s="1"/>
       <c r="D116" s="1"/>
@@ -2976,10 +4386,15 @@
       <c r="G116" s="1"/>
       <c r="H116" s="1"/>
       <c r="I116" s="1"/>
-    </row>
-    <row r="117" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J116" s="1"/>
+      <c r="K116" s="1"/>
+      <c r="L116" s="1"/>
+      <c r="M116" s="1"/>
+      <c r="N116" s="1"/>
+    </row>
+    <row r="117" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B117" s="7" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="C117" s="6"/>
       <c r="D117" s="6"/>
@@ -2998,8 +4413,23 @@
       <c r="I117" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="118" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J117" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="K117" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="L117" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="M117" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="N117" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="118" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B118" s="1"/>
       <c r="C118" s="1"/>
       <c r="D118" s="1"/>
@@ -3008,10 +4438,15 @@
       <c r="G118" s="1"/>
       <c r="H118" s="1"/>
       <c r="I118" s="1"/>
-    </row>
-    <row r="119" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J118" s="1"/>
+      <c r="K118" s="1"/>
+      <c r="L118" s="1"/>
+      <c r="M118" s="1"/>
+      <c r="N118" s="1"/>
+    </row>
+    <row r="119" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B119" s="8" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="C119" s="9"/>
       <c r="D119" s="9"/>
@@ -3020,272 +4455,442 @@
       <c r="G119" s="9"/>
       <c r="H119" s="9"/>
       <c r="I119" s="9"/>
-    </row>
-    <row r="120" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J119" s="9"/>
+      <c r="K119" s="9"/>
+      <c r="L119" s="9"/>
+      <c r="M119" s="9"/>
+      <c r="N119" s="9"/>
+    </row>
+    <row r="120" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B120" s="10" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C120" s="11" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="D120" s="11"/>
       <c r="E120" s="11">
+        <v>143251</v>
+      </c>
+      <c r="F120" s="11">
+        <v>121637</v>
+      </c>
+      <c r="G120" s="11">
+        <v>108679</v>
+      </c>
+      <c r="H120" s="11">
+        <v>197436</v>
+      </c>
+      <c r="I120" s="11">
+        <v>182792</v>
+      </c>
+      <c r="J120" s="11">
         <v>532103</v>
       </c>
-      <c r="F120" s="11">
+      <c r="K120" s="11">
         <v>24955</v>
       </c>
-      <c r="G120" s="11">
+      <c r="L120" s="11">
         <v>348028</v>
       </c>
-      <c r="H120" s="11">
+      <c r="M120" s="11">
         <v>580113</v>
       </c>
-      <c r="I120" s="11">
+      <c r="N120" s="11">
         <v>488913</v>
       </c>
     </row>
-    <row r="121" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="121" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B121" s="12" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C121" s="13" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="D121" s="13"/>
       <c r="E121" s="13">
+        <v>720792</v>
+      </c>
+      <c r="F121" s="13">
+        <v>688311</v>
+      </c>
+      <c r="G121" s="13">
+        <v>615384</v>
+      </c>
+      <c r="H121" s="13">
+        <v>684237</v>
+      </c>
+      <c r="I121" s="13">
+        <v>1295897</v>
+      </c>
+      <c r="J121" s="13">
         <v>1524139</v>
       </c>
-      <c r="F121" s="13">
+      <c r="K121" s="13">
         <v>723470</v>
       </c>
-      <c r="G121" s="13">
+      <c r="L121" s="13">
         <v>1307991</v>
       </c>
-      <c r="H121" s="13">
+      <c r="M121" s="13">
         <v>2164308</v>
       </c>
-      <c r="I121" s="13">
+      <c r="N121" s="13">
         <v>2066462</v>
       </c>
     </row>
-    <row r="122" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="122" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B122" s="10" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C122" s="11" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="D122" s="11"/>
       <c r="E122" s="11" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="F122" s="11" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="G122" s="11" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="H122" s="11" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="I122" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="123" spans="2:9" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+      <c r="J122" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="K122" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="L122" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="M122" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="N122" s="11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="123" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B123" s="12" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C123" s="13" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="D123" s="13"/>
       <c r="E123" s="13" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="F123" s="13" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="G123" s="13" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="H123" s="13" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="I123" s="13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="124" spans="2:9" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+      <c r="J123" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="K123" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="L123" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="M123" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="N123" s="13" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="124" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B124" s="10" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C124" s="11" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="D124" s="11"/>
       <c r="E124" s="11" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="F124" s="11" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="G124" s="11" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="H124" s="11" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="I124" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="125" spans="2:9" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+      <c r="J124" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="K124" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="L124" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="M124" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="N124" s="11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="125" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B125" s="12" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C125" s="13" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="D125" s="13"/>
       <c r="E125" s="13" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="F125" s="13" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="G125" s="13" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="H125" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="I125" s="13">
+        <v>20</v>
+      </c>
+      <c r="I125" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="J125" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="K125" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="L125" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="M125" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="N125" s="13">
         <v>340</v>
       </c>
     </row>
-    <row r="126" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="126" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B126" s="10" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C126" s="11" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="D126" s="11"/>
       <c r="E126" s="11" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="F126" s="11" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="G126" s="11" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="H126" s="11" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="I126" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="127" spans="2:9" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+      <c r="J126" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="K126" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="L126" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="M126" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="N126" s="11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="127" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B127" s="12" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C127" s="13" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="D127" s="13"/>
       <c r="E127" s="13" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="F127" s="13" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="G127" s="13" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="H127" s="13" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="I127" s="13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="128" spans="2:9" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+      <c r="J127" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="K127" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="L127" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="M127" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="N127" s="13" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="128" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B128" s="10" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C128" s="11" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="D128" s="11"/>
       <c r="E128" s="11" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="F128" s="11" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="G128" s="11" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="H128" s="11" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="I128" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="129" spans="2:9" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+      <c r="J128" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="K128" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="L128" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="M128" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="N128" s="11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="129" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B129" s="12" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C129" s="13" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="D129" s="13"/>
       <c r="E129" s="13" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="F129" s="13" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="G129" s="13" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="H129" s="13" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="I129" s="13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="130" spans="2:9" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+      <c r="J129" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="K129" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="L129" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="M129" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="N129" s="13" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="130" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B130" s="14" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="C130" s="15"/>
       <c r="D130" s="15"/>
       <c r="E130" s="15">
+        <v>864043</v>
+      </c>
+      <c r="F130" s="15">
+        <v>809948</v>
+      </c>
+      <c r="G130" s="15">
+        <v>724063</v>
+      </c>
+      <c r="H130" s="15">
+        <v>881673</v>
+      </c>
+      <c r="I130" s="15">
+        <v>1478689</v>
+      </c>
+      <c r="J130" s="15">
         <v>2056242</v>
       </c>
-      <c r="F130" s="15">
+      <c r="K130" s="15">
         <v>748425</v>
       </c>
-      <c r="G130" s="15">
+      <c r="L130" s="15">
         <v>1656019</v>
       </c>
-      <c r="H130" s="15">
+      <c r="M130" s="15">
         <v>2744421</v>
       </c>
-      <c r="I130" s="15">
+      <c r="N130" s="15">
         <v>2555715</v>
       </c>
     </row>
-    <row r="131" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="131" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B131" s="8" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="C131" s="9"/>
       <c r="D131" s="9"/>
@@ -3294,152 +4899,247 @@
       <c r="G131" s="9"/>
       <c r="H131" s="9"/>
       <c r="I131" s="9"/>
-    </row>
-    <row r="132" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J131" s="9"/>
+      <c r="K131" s="9"/>
+      <c r="L131" s="9"/>
+      <c r="M131" s="9"/>
+      <c r="N131" s="9"/>
+    </row>
+    <row r="132" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B132" s="10" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C132" s="11" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="D132" s="11"/>
       <c r="E132" s="11">
+        <v>94053</v>
+      </c>
+      <c r="F132" s="11">
+        <v>134788</v>
+      </c>
+      <c r="G132" s="11">
+        <v>139984</v>
+      </c>
+      <c r="H132" s="11">
+        <v>102031</v>
+      </c>
+      <c r="I132" s="11">
+        <v>92261</v>
+      </c>
+      <c r="J132" s="11">
         <v>-23192</v>
       </c>
-      <c r="F132" s="11">
+      <c r="K132" s="11">
         <v>284273</v>
       </c>
-      <c r="G132" s="11">
+      <c r="L132" s="11">
         <v>200995</v>
       </c>
-      <c r="H132" s="11">
+      <c r="M132" s="11">
         <v>234163</v>
       </c>
-      <c r="I132" s="11">
+      <c r="N132" s="11">
         <v>179761</v>
       </c>
     </row>
-    <row r="133" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="133" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B133" s="12" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C133" s="13" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="D133" s="13"/>
       <c r="E133" s="13">
+        <v>-3</v>
+      </c>
+      <c r="F133" s="13">
+        <v>2009</v>
+      </c>
+      <c r="G133" s="13">
+        <v>-45</v>
+      </c>
+      <c r="H133" s="13">
+        <v>17375</v>
+      </c>
+      <c r="I133" s="13">
+        <v>-5930</v>
+      </c>
+      <c r="J133" s="13">
         <v>25821</v>
       </c>
-      <c r="F133" s="13">
+      <c r="K133" s="13">
         <v>-8256</v>
       </c>
-      <c r="G133" s="13">
-        <v>0</v>
-      </c>
-      <c r="H133" s="13">
-        <v>0</v>
-      </c>
-      <c r="I133" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="134" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="L133" s="13">
+        <v>0</v>
+      </c>
+      <c r="M133" s="13">
+        <v>0</v>
+      </c>
+      <c r="N133" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B134" s="10" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C134" s="11" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="D134" s="11"/>
       <c r="E134" s="11">
+        <v>-6525</v>
+      </c>
+      <c r="F134" s="11">
+        <v>304079</v>
+      </c>
+      <c r="G134" s="11">
+        <v>441685</v>
+      </c>
+      <c r="H134" s="11">
+        <v>598589</v>
+      </c>
+      <c r="I134" s="11">
+        <v>-66271</v>
+      </c>
+      <c r="J134" s="11">
         <v>-291981</v>
       </c>
-      <c r="F134" s="11">
+      <c r="K134" s="11">
         <v>261500</v>
       </c>
-      <c r="G134" s="11">
-        <v>0</v>
-      </c>
-      <c r="H134" s="11">
+      <c r="L134" s="11">
+        <v>0</v>
+      </c>
+      <c r="M134" s="11">
         <v>15017</v>
       </c>
-      <c r="I134" s="11">
+      <c r="N134" s="11">
         <v>1147407</v>
       </c>
     </row>
-    <row r="135" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="135" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B135" s="12" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C135" s="13" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="D135" s="13"/>
       <c r="E135" s="13" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="F135" s="13" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="G135" s="13" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="H135" s="13" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="I135" s="13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="136" spans="2:9" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+      <c r="J135" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="K135" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="L135" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="M135" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="N135" s="13" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="136" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B136" s="10" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C136" s="11" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="D136" s="11"/>
       <c r="E136" s="11" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="F136" s="11" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="G136" s="11" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="H136" s="11" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="I136" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="137" spans="2:9" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+      <c r="J136" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="K136" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="L136" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="M136" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="N136" s="11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="137" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B137" s="16" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="C137" s="17"/>
       <c r="D137" s="17"/>
       <c r="E137" s="17">
+        <v>87525</v>
+      </c>
+      <c r="F137" s="17">
+        <v>440876</v>
+      </c>
+      <c r="G137" s="17">
+        <v>581624</v>
+      </c>
+      <c r="H137" s="17">
+        <v>717995</v>
+      </c>
+      <c r="I137" s="17">
+        <v>20060</v>
+      </c>
+      <c r="J137" s="17">
         <v>-289352</v>
       </c>
-      <c r="F137" s="17">
+      <c r="K137" s="17">
         <v>537517</v>
       </c>
-      <c r="G137" s="17">
+      <c r="L137" s="17">
         <v>200995</v>
       </c>
-      <c r="H137" s="17">
+      <c r="M137" s="17">
         <v>249180</v>
       </c>
-      <c r="I137" s="17">
+      <c r="N137" s="17">
         <v>1327168</v>
       </c>
     </row>
-    <row r="138" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="138" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B138" s="18" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="C138" s="19"/>
       <c r="D138" s="19"/>
@@ -3448,10 +5148,15 @@
       <c r="G138" s="19"/>
       <c r="H138" s="19"/>
       <c r="I138" s="19"/>
-    </row>
-    <row r="139" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J138" s="19"/>
+      <c r="K138" s="19"/>
+      <c r="L138" s="19"/>
+      <c r="M138" s="19"/>
+      <c r="N138" s="19"/>
+    </row>
+    <row r="139" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B139" s="14" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="C139" s="15"/>
       <c r="D139" s="15"/>
@@ -3470,26 +5175,56 @@
       <c r="I139" s="15">
         <v>0</v>
       </c>
-    </row>
-    <row r="140" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J139" s="15">
+        <v>0</v>
+      </c>
+      <c r="K139" s="15">
+        <v>0</v>
+      </c>
+      <c r="L139" s="15">
+        <v>0</v>
+      </c>
+      <c r="M139" s="15">
+        <v>0</v>
+      </c>
+      <c r="N139" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B140" s="16" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C140" s="17"/>
       <c r="D140" s="17"/>
       <c r="E140" s="17">
+        <v>951568</v>
+      </c>
+      <c r="F140" s="17">
+        <v>1250824</v>
+      </c>
+      <c r="G140" s="17">
+        <v>1305687</v>
+      </c>
+      <c r="H140" s="17">
+        <v>1599668</v>
+      </c>
+      <c r="I140" s="17">
+        <v>1498749</v>
+      </c>
+      <c r="J140" s="17">
         <v>1766890</v>
       </c>
-      <c r="F140" s="17">
+      <c r="K140" s="17">
         <v>1285942</v>
       </c>
-      <c r="G140" s="17">
+      <c r="L140" s="17">
         <v>1857014</v>
       </c>
-      <c r="H140" s="17">
+      <c r="M140" s="17">
         <v>2993601</v>
       </c>
-      <c r="I140" s="17">
+      <c r="N140" s="17">
         <v>3882883</v>
       </c>
     </row>

--- a/database/industries/siman/save/product/quarterly_seprated.xlsx
+++ b/database/industries/siman/save/product/quarterly_seprated.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\siman\save\product\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\siman\save\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2313C44E-D416-4A9B-A8E1-63D3DF30D046}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20430" windowHeight="9420"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -208,7 +207,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -401,7 +400,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -413,7 +412,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -460,23 +459,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -512,23 +494,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -680,7 +645,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:N140"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/database/industries/siman/save/product/quarterly_seprated.xlsx
+++ b/database/industries/siman/save/product/quarterly_seprated.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\siman\save\product\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EBRAHIMI\Desktop\Trade\database\industries\siman\save\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14F39008-C0EF-485B-92A5-4F4250E379CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20430" windowHeight="9420"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="771" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="768" uniqueCount="61">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -36,9 +37,6 @@
     <t>مقدار فروش</t>
   </si>
   <si>
-    <t>فصل دوم منتهی به 1399/06</t>
-  </si>
-  <si>
     <t>فصل سوم منتهی به 1399/09</t>
   </si>
   <si>
@@ -64,6 +62,9 @@
   </si>
   <si>
     <t>فصل سوم منتهی به 1401/09</t>
+  </si>
+  <si>
+    <t>فصل چهارم منتهی به 1401/12</t>
   </si>
   <si>
     <t>مقدار فروش داخلی</t>
@@ -207,7 +208,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -400,7 +401,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -412,7 +413,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -459,6 +460,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -494,6 +512,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -645,17 +680,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:N140"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="14" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -670,7 +705,7 @@
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
     </row>
-    <row r="2" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -687,7 +722,7 @@
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
     </row>
-    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -704,7 +739,7 @@
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
     </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -719,7 +754,7 @@
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
     </row>
-    <row r="5" spans="2:14" ht="42" x14ac:dyDescent="0.65">
+    <row r="5" spans="2:14" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -736,7 +771,7 @@
       <c r="M5" s="4"/>
       <c r="N5" s="4"/>
     </row>
-    <row r="6" spans="2:14" ht="42" x14ac:dyDescent="0.65">
+    <row r="6" spans="2:14" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -753,7 +788,7 @@
       <c r="M6" s="4"/>
       <c r="N6" s="4"/>
     </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -768,7 +803,7 @@
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
     </row>
-    <row r="8" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -805,7 +840,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -820,7 +855,7 @@
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
     </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B10" s="8" t="s">
         <v>15</v>
       </c>
@@ -837,7 +872,7 @@
       <c r="M10" s="9"/>
       <c r="N10" s="9"/>
     </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B11" s="10" t="s">
         <v>16</v>
       </c>
@@ -846,37 +881,37 @@
       </c>
       <c r="D11" s="11"/>
       <c r="E11" s="11">
-        <v>66874</v>
+        <v>69067</v>
       </c>
       <c r="F11" s="11">
-        <v>69067</v>
+        <v>56470</v>
       </c>
       <c r="G11" s="11">
-        <v>56470</v>
+        <v>66349</v>
       </c>
       <c r="H11" s="11">
-        <v>66349</v>
+        <v>36870</v>
       </c>
       <c r="I11" s="11">
-        <v>36870</v>
+        <v>13082</v>
       </c>
       <c r="J11" s="11">
-        <v>13082</v>
+        <v>106466</v>
       </c>
       <c r="K11" s="11">
-        <v>106466</v>
+        <v>56293</v>
       </c>
       <c r="L11" s="11">
-        <v>56293</v>
+        <v>66059</v>
       </c>
       <c r="M11" s="11">
-        <v>66059</v>
+        <v>66469</v>
       </c>
       <c r="N11" s="11">
-        <v>66469</v>
-      </c>
-    </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
+        <v>69001</v>
+      </c>
+    </row>
+    <row r="12" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B12" s="12" t="s">
         <v>18</v>
       </c>
@@ -885,37 +920,37 @@
       </c>
       <c r="D12" s="13"/>
       <c r="E12" s="13">
-        <v>481177</v>
+        <v>507082</v>
       </c>
       <c r="F12" s="13">
-        <v>507082</v>
+        <v>377495</v>
       </c>
       <c r="G12" s="13">
-        <v>377495</v>
+        <v>388611</v>
       </c>
       <c r="H12" s="13">
-        <v>388611</v>
+        <v>362152</v>
       </c>
       <c r="I12" s="13">
-        <v>362152</v>
+        <v>475192</v>
       </c>
       <c r="J12" s="13">
-        <v>475192</v>
+        <v>465020</v>
       </c>
       <c r="K12" s="13">
-        <v>465020</v>
+        <v>441996</v>
       </c>
       <c r="L12" s="13">
-        <v>441996</v>
+        <v>444358</v>
       </c>
       <c r="M12" s="13">
-        <v>444358</v>
+        <v>533264</v>
       </c>
       <c r="N12" s="13">
-        <v>533264</v>
-      </c>
-    </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
+        <v>555309</v>
+      </c>
+    </row>
+    <row r="13" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B13" s="10" t="s">
         <v>19</v>
       </c>
@@ -954,7 +989,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B14" s="12" t="s">
         <v>21</v>
       </c>
@@ -993,7 +1028,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B15" s="10" t="s">
         <v>22</v>
       </c>
@@ -1032,7 +1067,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B16" s="12" t="s">
         <v>23</v>
       </c>
@@ -1064,14 +1099,14 @@
       <c r="L16" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="M16" s="13" t="s">
-        <v>20</v>
+      <c r="M16" s="13">
+        <v>315</v>
       </c>
       <c r="N16" s="13">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
+        <v>53636</v>
+      </c>
+    </row>
+    <row r="17" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B17" s="10" t="s">
         <v>24</v>
       </c>
@@ -1110,7 +1145,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B18" s="12" t="s">
         <v>25</v>
       </c>
@@ -1149,7 +1184,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B19" s="10" t="s">
         <v>26</v>
       </c>
@@ -1188,7 +1223,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B20" s="12" t="s">
         <v>27</v>
       </c>
@@ -1227,44 +1262,44 @@
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B21" s="14" t="s">
         <v>28</v>
       </c>
       <c r="C21" s="15"/>
       <c r="D21" s="15"/>
       <c r="E21" s="15">
-        <v>548051</v>
+        <v>576149</v>
       </c>
       <c r="F21" s="15">
-        <v>576149</v>
+        <v>433965</v>
       </c>
       <c r="G21" s="15">
-        <v>433965</v>
+        <v>454960</v>
       </c>
       <c r="H21" s="15">
-        <v>454960</v>
+        <v>399022</v>
       </c>
       <c r="I21" s="15">
-        <v>399022</v>
+        <v>488274</v>
       </c>
       <c r="J21" s="15">
-        <v>488274</v>
+        <v>571486</v>
       </c>
       <c r="K21" s="15">
-        <v>571486</v>
+        <v>498288</v>
       </c>
       <c r="L21" s="15">
-        <v>498288</v>
+        <v>510416</v>
       </c>
       <c r="M21" s="15">
-        <v>510416</v>
+        <v>600048</v>
       </c>
       <c r="N21" s="15">
-        <v>600048</v>
-      </c>
-    </row>
-    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
+        <v>677946</v>
+      </c>
+    </row>
+    <row r="22" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B22" s="8" t="s">
         <v>29</v>
       </c>
@@ -1281,7 +1316,7 @@
       <c r="M22" s="9"/>
       <c r="N22" s="9"/>
     </row>
-    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B23" s="10" t="s">
         <v>16</v>
       </c>
@@ -1290,37 +1325,37 @@
       </c>
       <c r="D23" s="11"/>
       <c r="E23" s="11">
-        <v>-135738</v>
+        <v>16222</v>
       </c>
       <c r="F23" s="11">
-        <v>16222</v>
+        <v>19025</v>
       </c>
       <c r="G23" s="11">
-        <v>19025</v>
+        <v>15106</v>
       </c>
       <c r="H23" s="11">
-        <v>15106</v>
+        <v>13094</v>
       </c>
       <c r="I23" s="11">
-        <v>13094</v>
+        <v>13601</v>
       </c>
       <c r="J23" s="11">
-        <v>13601</v>
+        <v>12723</v>
       </c>
       <c r="K23" s="11">
-        <v>12723</v>
+        <v>19635</v>
       </c>
       <c r="L23" s="11">
-        <v>19635</v>
+        <v>16938</v>
       </c>
       <c r="M23" s="11">
-        <v>16938</v>
+        <v>15249</v>
       </c>
       <c r="N23" s="11">
-        <v>15249</v>
-      </c>
-    </row>
-    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
+        <v>13333</v>
+      </c>
+    </row>
+    <row r="24" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B24" s="12" t="s">
         <v>30</v>
       </c>
@@ -1329,25 +1364,25 @@
       </c>
       <c r="D24" s="13"/>
       <c r="E24" s="13">
-        <v>0</v>
+        <v>277</v>
       </c>
       <c r="F24" s="13">
-        <v>277</v>
+        <v>67174</v>
       </c>
       <c r="G24" s="13">
-        <v>67174</v>
+        <v>4999</v>
       </c>
       <c r="H24" s="13">
-        <v>4999</v>
+        <v>0</v>
       </c>
       <c r="I24" s="13">
-        <v>0</v>
+        <v>6116</v>
       </c>
       <c r="J24" s="13">
-        <v>6116</v>
+        <v>4614</v>
       </c>
       <c r="K24" s="13">
-        <v>4614</v>
+        <v>0</v>
       </c>
       <c r="L24" s="13">
         <v>0</v>
@@ -1356,10 +1391,10 @@
         <v>0</v>
       </c>
       <c r="N24" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="25" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B25" s="10" t="s">
         <v>23</v>
       </c>
@@ -1368,16 +1403,16 @@
       </c>
       <c r="D25" s="11"/>
       <c r="E25" s="11">
-        <v>137700</v>
+        <v>116468</v>
       </c>
       <c r="F25" s="11">
-        <v>116468</v>
+        <v>124967</v>
       </c>
       <c r="G25" s="11">
-        <v>124967</v>
+        <v>161205</v>
       </c>
       <c r="H25" s="11">
-        <v>161205</v>
+        <v>0</v>
       </c>
       <c r="I25" s="11">
         <v>0</v>
@@ -1389,16 +1424,16 @@
         <v>0</v>
       </c>
       <c r="L25" s="11">
-        <v>0</v>
+        <v>2448</v>
       </c>
       <c r="M25" s="11">
-        <v>2448</v>
+        <v>182609</v>
       </c>
       <c r="N25" s="11">
-        <v>182609</v>
-      </c>
-    </row>
-    <row r="26" spans="2:14" x14ac:dyDescent="0.25">
+        <v>153184</v>
+      </c>
+    </row>
+    <row r="26" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B26" s="12" t="s">
         <v>31</v>
       </c>
@@ -1437,7 +1472,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="27" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B27" s="10" t="s">
         <v>25</v>
       </c>
@@ -1476,44 +1511,44 @@
         <v>20</v>
       </c>
     </row>
-    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B28" s="16" t="s">
         <v>32</v>
       </c>
       <c r="C28" s="17"/>
       <c r="D28" s="17"/>
       <c r="E28" s="17">
-        <v>1962</v>
+        <v>132967</v>
       </c>
       <c r="F28" s="17">
-        <v>132967</v>
+        <v>211166</v>
       </c>
       <c r="G28" s="17">
-        <v>211166</v>
+        <v>181310</v>
       </c>
       <c r="H28" s="17">
-        <v>181310</v>
+        <v>13094</v>
       </c>
       <c r="I28" s="17">
-        <v>13094</v>
+        <v>19717</v>
       </c>
       <c r="J28" s="17">
-        <v>19717</v>
+        <v>17337</v>
       </c>
       <c r="K28" s="17">
-        <v>17337</v>
+        <v>19635</v>
       </c>
       <c r="L28" s="17">
-        <v>19635</v>
+        <v>19386</v>
       </c>
       <c r="M28" s="17">
-        <v>19386</v>
+        <v>197858</v>
       </c>
       <c r="N28" s="17">
-        <v>197858</v>
-      </c>
-    </row>
-    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
+        <v>166922</v>
+      </c>
+    </row>
+    <row r="29" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B29" s="18" t="s">
         <v>33</v>
       </c>
@@ -1530,7 +1565,7 @@
       <c r="M29" s="19"/>
       <c r="N29" s="19"/>
     </row>
-    <row r="30" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B30" s="14" t="s">
         <v>34</v>
       </c>
@@ -1567,7 +1602,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B31" s="16" t="s">
         <v>35</v>
       </c>
@@ -1582,8 +1617,8 @@
       <c r="G31" s="17">
         <v>0</v>
       </c>
-      <c r="H31" s="17">
-        <v>0</v>
+      <c r="H31" s="17" t="s">
+        <v>20</v>
       </c>
       <c r="I31" s="17" t="s">
         <v>20</v>
@@ -1604,7 +1639,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="32" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B32" s="14" t="s">
         <v>36</v>
       </c>
@@ -1641,44 +1676,44 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B33" s="16" t="s">
         <v>37</v>
       </c>
       <c r="C33" s="17"/>
       <c r="D33" s="17"/>
       <c r="E33" s="17">
-        <v>550013</v>
+        <v>709116</v>
       </c>
       <c r="F33" s="17">
-        <v>709116</v>
+        <v>645131</v>
       </c>
       <c r="G33" s="17">
-        <v>645131</v>
+        <v>636270</v>
       </c>
       <c r="H33" s="17">
-        <v>636270</v>
+        <v>412116</v>
       </c>
       <c r="I33" s="17">
-        <v>412116</v>
+        <v>507991</v>
       </c>
       <c r="J33" s="17">
-        <v>507991</v>
+        <v>588823</v>
       </c>
       <c r="K33" s="17">
-        <v>588823</v>
+        <v>517923</v>
       </c>
       <c r="L33" s="17">
-        <v>517923</v>
+        <v>529802</v>
       </c>
       <c r="M33" s="17">
-        <v>529802</v>
+        <v>797906</v>
       </c>
       <c r="N33" s="17">
-        <v>797906</v>
-      </c>
-    </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.25">
+        <v>844868</v>
+      </c>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
@@ -1693,7 +1728,7 @@
       <c r="M34" s="1"/>
       <c r="N34" s="1"/>
     </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
@@ -1708,7 +1743,7 @@
       <c r="M35" s="1"/>
       <c r="N35" s="1"/>
     </row>
-    <row r="36" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
@@ -1723,7 +1758,7 @@
       <c r="M36" s="1"/>
       <c r="N36" s="1"/>
     </row>
-    <row r="37" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B37" s="7" t="s">
         <v>38</v>
       </c>
@@ -1760,7 +1795,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
@@ -1775,7 +1810,7 @@
       <c r="M38" s="1"/>
       <c r="N38" s="1"/>
     </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B39" s="8" t="s">
         <v>39</v>
       </c>
@@ -1792,7 +1827,7 @@
       <c r="M39" s="9"/>
       <c r="N39" s="9"/>
     </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B40" s="10" t="s">
         <v>16</v>
       </c>
@@ -1801,37 +1836,37 @@
       </c>
       <c r="D40" s="11"/>
       <c r="E40" s="11">
-        <v>316543</v>
+        <v>348613</v>
       </c>
       <c r="F40" s="11">
-        <v>348613</v>
+        <v>297969</v>
       </c>
       <c r="G40" s="11">
-        <v>297969</v>
+        <v>451345</v>
       </c>
       <c r="H40" s="11">
-        <v>451345</v>
+        <v>390596</v>
       </c>
       <c r="I40" s="11">
-        <v>390596</v>
+        <v>631904</v>
       </c>
       <c r="J40" s="11">
-        <v>631904</v>
+        <v>574747</v>
       </c>
       <c r="K40" s="11">
-        <v>574747</v>
+        <v>673714</v>
       </c>
       <c r="L40" s="11">
-        <v>673714</v>
+        <v>1010478</v>
       </c>
       <c r="M40" s="11">
-        <v>1010478</v>
+        <v>1010732</v>
       </c>
       <c r="N40" s="11">
-        <v>1010732</v>
-      </c>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.25">
+        <v>1016535</v>
+      </c>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B41" s="12" t="s">
         <v>18</v>
       </c>
@@ -1840,37 +1875,37 @@
       </c>
       <c r="D41" s="13"/>
       <c r="E41" s="13">
-        <v>1202462</v>
+        <v>1268237</v>
       </c>
       <c r="F41" s="13">
-        <v>1268237</v>
+        <v>1060013</v>
       </c>
       <c r="G41" s="13">
-        <v>1060013</v>
+        <v>1308281</v>
       </c>
       <c r="H41" s="13">
-        <v>1308281</v>
+        <v>2031460</v>
       </c>
       <c r="I41" s="13">
-        <v>2031460</v>
+        <v>2189223</v>
       </c>
       <c r="J41" s="13">
-        <v>2189223</v>
+        <v>2224398</v>
       </c>
       <c r="K41" s="13">
-        <v>2224398</v>
+        <v>2438983</v>
       </c>
       <c r="L41" s="13">
-        <v>2438983</v>
+        <v>3350581</v>
       </c>
       <c r="M41" s="13">
-        <v>3350581</v>
+        <v>3489957</v>
       </c>
       <c r="N41" s="13">
-        <v>3489957</v>
-      </c>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.25">
+        <v>3797275</v>
+      </c>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B42" s="10" t="s">
         <v>19</v>
       </c>
@@ -1909,7 +1944,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B43" s="12" t="s">
         <v>21</v>
       </c>
@@ -1948,7 +1983,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B44" s="10" t="s">
         <v>22</v>
       </c>
@@ -1987,7 +2022,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B45" s="12" t="s">
         <v>23</v>
       </c>
@@ -2019,14 +2054,14 @@
       <c r="L45" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="M45" s="13" t="s">
-        <v>20</v>
+      <c r="M45" s="13">
+        <v>1009</v>
       </c>
       <c r="N45" s="13">
-        <v>1009</v>
-      </c>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.25">
+        <v>171633</v>
+      </c>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B46" s="10" t="s">
         <v>24</v>
       </c>
@@ -2065,7 +2100,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B47" s="12" t="s">
         <v>25</v>
       </c>
@@ -2104,7 +2139,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B48" s="10" t="s">
         <v>26</v>
       </c>
@@ -2143,7 +2178,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="49" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B49" s="12" t="s">
         <v>27</v>
       </c>
@@ -2182,44 +2217,44 @@
         <v>20</v>
       </c>
     </row>
-    <row r="50" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B50" s="14" t="s">
         <v>28</v>
       </c>
       <c r="C50" s="15"/>
       <c r="D50" s="15"/>
       <c r="E50" s="15">
-        <v>1519005</v>
+        <v>1616850</v>
       </c>
       <c r="F50" s="15">
-        <v>1616850</v>
+        <v>1357982</v>
       </c>
       <c r="G50" s="15">
-        <v>1357982</v>
+        <v>1759626</v>
       </c>
       <c r="H50" s="15">
-        <v>1759626</v>
+        <v>2422056</v>
       </c>
       <c r="I50" s="15">
-        <v>2422056</v>
+        <v>2821127</v>
       </c>
       <c r="J50" s="15">
-        <v>2821127</v>
+        <v>2799145</v>
       </c>
       <c r="K50" s="15">
-        <v>2799145</v>
+        <v>3112697</v>
       </c>
       <c r="L50" s="15">
-        <v>3112697</v>
+        <v>4361059</v>
       </c>
       <c r="M50" s="15">
-        <v>4361059</v>
+        <v>4501698</v>
       </c>
       <c r="N50" s="15">
-        <v>4501698</v>
-      </c>
-    </row>
-    <row r="51" spans="2:14" x14ac:dyDescent="0.25">
+        <v>4985443</v>
+      </c>
+    </row>
+    <row r="51" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B51" s="8" t="s">
         <v>41</v>
       </c>
@@ -2236,7 +2271,7 @@
       <c r="M51" s="9"/>
       <c r="N51" s="9"/>
     </row>
-    <row r="52" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B52" s="10" t="s">
         <v>16</v>
       </c>
@@ -2245,37 +2280,37 @@
       </c>
       <c r="D52" s="11"/>
       <c r="E52" s="11">
-        <v>-172529</v>
+        <v>182308</v>
       </c>
       <c r="F52" s="11">
-        <v>182308</v>
+        <v>197626</v>
       </c>
       <c r="G52" s="11">
-        <v>197626</v>
+        <v>154608</v>
       </c>
       <c r="H52" s="11">
-        <v>154608</v>
+        <v>153434</v>
       </c>
       <c r="I52" s="11">
-        <v>153434</v>
+        <v>209487</v>
       </c>
       <c r="J52" s="11">
-        <v>209487</v>
+        <v>163243</v>
       </c>
       <c r="K52" s="11">
-        <v>163243</v>
+        <v>302916</v>
       </c>
       <c r="L52" s="11">
-        <v>302916</v>
+        <v>340541</v>
       </c>
       <c r="M52" s="11">
-        <v>340541</v>
+        <v>298673</v>
       </c>
       <c r="N52" s="11">
-        <v>298673</v>
-      </c>
-    </row>
-    <row r="53" spans="2:14" x14ac:dyDescent="0.25">
+        <v>297292</v>
+      </c>
+    </row>
+    <row r="53" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B53" s="12" t="s">
         <v>30</v>
       </c>
@@ -2284,25 +2319,25 @@
       </c>
       <c r="D53" s="13"/>
       <c r="E53" s="13">
-        <v>0</v>
+        <v>2591</v>
       </c>
       <c r="F53" s="13">
-        <v>2591</v>
+        <v>0</v>
       </c>
       <c r="G53" s="13">
-        <v>0</v>
+        <v>45808</v>
       </c>
       <c r="H53" s="13">
-        <v>45808</v>
+        <v>1</v>
       </c>
       <c r="I53" s="13">
-        <v>1</v>
+        <v>59916</v>
       </c>
       <c r="J53" s="13">
-        <v>59916</v>
+        <v>51026</v>
       </c>
       <c r="K53" s="13">
-        <v>51026</v>
+        <v>0</v>
       </c>
       <c r="L53" s="13">
         <v>0</v>
@@ -2311,10 +2346,10 @@
         <v>0</v>
       </c>
       <c r="N53" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="2:14" x14ac:dyDescent="0.25">
+        <v>6529</v>
+      </c>
+    </row>
+    <row r="54" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B54" s="10" t="s">
         <v>23</v>
       </c>
@@ -2323,16 +2358,16 @@
       </c>
       <c r="D54" s="11"/>
       <c r="E54" s="11">
-        <v>293852</v>
+        <v>388677</v>
       </c>
       <c r="F54" s="11">
-        <v>388677</v>
+        <v>542162</v>
       </c>
       <c r="G54" s="11">
-        <v>542162</v>
+        <v>711683</v>
       </c>
       <c r="H54" s="11">
-        <v>711683</v>
+        <v>0</v>
       </c>
       <c r="I54" s="11">
         <v>0</v>
@@ -2344,16 +2379,16 @@
         <v>0</v>
       </c>
       <c r="L54" s="11">
-        <v>0</v>
+        <v>20305</v>
       </c>
       <c r="M54" s="11">
-        <v>20305</v>
+        <v>1528555</v>
       </c>
       <c r="N54" s="11">
-        <v>1528555</v>
-      </c>
-    </row>
-    <row r="55" spans="2:14" x14ac:dyDescent="0.25">
+        <v>1401635</v>
+      </c>
+    </row>
+    <row r="55" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B55" s="12" t="s">
         <v>31</v>
       </c>
@@ -2392,7 +2427,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="56" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B56" s="10" t="s">
         <v>25</v>
       </c>
@@ -2431,44 +2466,44 @@
         <v>20</v>
       </c>
     </row>
-    <row r="57" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B57" s="16" t="s">
         <v>32</v>
       </c>
       <c r="C57" s="17"/>
       <c r="D57" s="17"/>
       <c r="E57" s="17">
-        <v>121323</v>
+        <v>573576</v>
       </c>
       <c r="F57" s="17">
-        <v>573576</v>
+        <v>739788</v>
       </c>
       <c r="G57" s="17">
-        <v>739788</v>
+        <v>912099</v>
       </c>
       <c r="H57" s="17">
-        <v>912099</v>
+        <v>153435</v>
       </c>
       <c r="I57" s="17">
-        <v>153435</v>
+        <v>269403</v>
       </c>
       <c r="J57" s="17">
-        <v>269403</v>
+        <v>214269</v>
       </c>
       <c r="K57" s="17">
-        <v>214269</v>
+        <v>302916</v>
       </c>
       <c r="L57" s="17">
-        <v>302916</v>
+        <v>360846</v>
       </c>
       <c r="M57" s="17">
-        <v>360846</v>
+        <v>1827228</v>
       </c>
       <c r="N57" s="17">
-        <v>1827228</v>
-      </c>
-    </row>
-    <row r="58" spans="2:14" x14ac:dyDescent="0.25">
+        <v>1705456</v>
+      </c>
+    </row>
+    <row r="58" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B58" s="18" t="s">
         <v>42</v>
       </c>
@@ -2485,7 +2520,7 @@
       <c r="M58" s="19"/>
       <c r="N58" s="19"/>
     </row>
-    <row r="59" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B59" s="14" t="s">
         <v>34</v>
       </c>
@@ -2522,7 +2557,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B60" s="16" t="s">
         <v>35</v>
       </c>
@@ -2539,8 +2574,8 @@
       <c r="G60" s="17">
         <v>0</v>
       </c>
-      <c r="H60" s="17">
-        <v>0</v>
+      <c r="H60" s="17" t="s">
+        <v>20</v>
       </c>
       <c r="I60" s="17" t="s">
         <v>20</v>
@@ -2561,7 +2596,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="61" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B61" s="14" t="s">
         <v>36</v>
       </c>
@@ -2570,13 +2605,13 @@
       </c>
       <c r="D61" s="15"/>
       <c r="E61" s="15">
-        <v>-109209</v>
+        <v>0</v>
       </c>
       <c r="F61" s="15">
-        <v>0</v>
+        <v>-110226</v>
       </c>
       <c r="G61" s="15">
-        <v>-110226</v>
+        <v>0</v>
       </c>
       <c r="H61" s="15">
         <v>0</v>
@@ -2600,44 +2635,44 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B62" s="16" t="s">
         <v>37</v>
       </c>
       <c r="C62" s="17"/>
       <c r="D62" s="17"/>
       <c r="E62" s="17">
-        <v>1531119</v>
+        <v>2190426</v>
       </c>
       <c r="F62" s="17">
-        <v>2190426</v>
+        <v>1987544</v>
       </c>
       <c r="G62" s="17">
-        <v>1987544</v>
+        <v>2671725</v>
       </c>
       <c r="H62" s="17">
-        <v>2671725</v>
+        <v>2575491</v>
       </c>
       <c r="I62" s="17">
-        <v>2575491</v>
+        <v>3090530</v>
       </c>
       <c r="J62" s="17">
-        <v>3090530</v>
+        <v>3013414</v>
       </c>
       <c r="K62" s="17">
-        <v>3013414</v>
+        <v>3415613</v>
       </c>
       <c r="L62" s="17">
-        <v>3415613</v>
+        <v>4721905</v>
       </c>
       <c r="M62" s="17">
-        <v>4721905</v>
+        <v>6328926</v>
       </c>
       <c r="N62" s="17">
-        <v>6328926</v>
-      </c>
-    </row>
-    <row r="63" spans="2:14" x14ac:dyDescent="0.25">
+        <v>6690899</v>
+      </c>
+    </row>
+    <row r="63" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
       <c r="D63" s="1"/>
@@ -2652,7 +2687,7 @@
       <c r="M63" s="1"/>
       <c r="N63" s="1"/>
     </row>
-    <row r="64" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
       <c r="D64" s="1"/>
@@ -2667,7 +2702,7 @@
       <c r="M64" s="1"/>
       <c r="N64" s="1"/>
     </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
       <c r="D65" s="1"/>
@@ -2682,7 +2717,7 @@
       <c r="M65" s="1"/>
       <c r="N65" s="1"/>
     </row>
-    <row r="66" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B66" s="7" t="s">
         <v>43</v>
       </c>
@@ -2719,7 +2754,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
       <c r="D67" s="1"/>
@@ -2734,7 +2769,7 @@
       <c r="M67" s="1"/>
       <c r="N67" s="1"/>
     </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B68" s="8" t="s">
         <v>44</v>
       </c>
@@ -2751,7 +2786,7 @@
       <c r="M68" s="9"/>
       <c r="N68" s="9"/>
     </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B69" s="10" t="s">
         <v>16</v>
       </c>
@@ -2760,37 +2795,37 @@
       </c>
       <c r="D69" s="11"/>
       <c r="E69" s="11">
-        <v>4733424</v>
+        <v>5047461</v>
       </c>
       <c r="F69" s="11">
-        <v>5047461</v>
+        <v>5276589</v>
       </c>
       <c r="G69" s="11">
-        <v>5276589</v>
+        <v>6802589</v>
       </c>
       <c r="H69" s="11">
-        <v>6802589</v>
+        <v>10593870</v>
       </c>
       <c r="I69" s="11">
-        <v>10593870</v>
+        <v>48303318</v>
       </c>
       <c r="J69" s="11">
-        <v>48303318</v>
+        <v>9196120</v>
       </c>
       <c r="K69" s="11">
-        <v>9196120</v>
+        <v>11968095</v>
       </c>
       <c r="L69" s="11">
-        <v>11968095</v>
+        <v>15296714</v>
       </c>
       <c r="M69" s="11">
-        <v>15296714</v>
+        <v>15206066</v>
       </c>
       <c r="N69" s="11">
-        <v>15206066</v>
-      </c>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.25">
+        <v>14732178</v>
+      </c>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B70" s="12" t="s">
         <v>18</v>
       </c>
@@ -2799,37 +2834,37 @@
       </c>
       <c r="D70" s="13"/>
       <c r="E70" s="13">
-        <v>2499001</v>
+        <v>2501049</v>
       </c>
       <c r="F70" s="13">
-        <v>2501049</v>
+        <v>2808019</v>
       </c>
       <c r="G70" s="13">
-        <v>2808019</v>
+        <v>3366557</v>
       </c>
       <c r="H70" s="13">
-        <v>3366557</v>
+        <v>5609413</v>
       </c>
       <c r="I70" s="13">
-        <v>5609413</v>
+        <v>4607028</v>
       </c>
       <c r="J70" s="13">
-        <v>4607028</v>
+        <v>4585143</v>
       </c>
       <c r="K70" s="13">
-        <v>4585143</v>
+        <v>5518117</v>
       </c>
       <c r="L70" s="13">
-        <v>5518117</v>
+        <v>7540282</v>
       </c>
       <c r="M70" s="13">
-        <v>7540282</v>
+        <v>6544520</v>
       </c>
       <c r="N70" s="13">
-        <v>6544520</v>
-      </c>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.25">
+        <v>6838130</v>
+      </c>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B71" s="10" t="s">
         <v>19</v>
       </c>
@@ -2868,7 +2903,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B72" s="12" t="s">
         <v>21</v>
       </c>
@@ -2907,7 +2942,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B73" s="10" t="s">
         <v>22</v>
       </c>
@@ -2946,7 +2981,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B74" s="12" t="s">
         <v>23</v>
       </c>
@@ -2978,14 +3013,14 @@
       <c r="L74" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="M74" s="13" t="s">
-        <v>20</v>
+      <c r="M74" s="13">
+        <v>3203175</v>
       </c>
       <c r="N74" s="13">
-        <v>3203175</v>
-      </c>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.25">
+        <v>3199959</v>
+      </c>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B75" s="10" t="s">
         <v>24</v>
       </c>
@@ -3024,7 +3059,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B76" s="12" t="s">
         <v>25</v>
       </c>
@@ -3063,7 +3098,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B77" s="10" t="s">
         <v>26</v>
       </c>
@@ -3102,7 +3137,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="78" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B78" s="12" t="s">
         <v>27</v>
       </c>
@@ -3141,7 +3176,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B79" s="8" t="s">
         <v>46</v>
       </c>
@@ -3158,7 +3193,7 @@
       <c r="M79" s="9"/>
       <c r="N79" s="9"/>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B80" s="10" t="s">
         <v>16</v>
       </c>
@@ -3167,37 +3202,37 @@
       </c>
       <c r="D80" s="11"/>
       <c r="E80" s="11">
-        <v>1271044</v>
+        <v>11238318</v>
       </c>
       <c r="F80" s="11">
-        <v>11238318</v>
+        <v>10387700</v>
       </c>
       <c r="G80" s="11">
-        <v>10387700</v>
+        <v>10234874</v>
       </c>
       <c r="H80" s="11">
-        <v>10234874</v>
+        <v>11717886</v>
       </c>
       <c r="I80" s="11">
-        <v>11717886</v>
+        <v>15402323</v>
       </c>
       <c r="J80" s="11">
-        <v>15402323</v>
+        <v>12206681</v>
       </c>
       <c r="K80" s="11">
-        <v>12206681</v>
+        <v>15427349</v>
       </c>
       <c r="L80" s="11">
-        <v>15427349</v>
+        <v>20105148</v>
       </c>
       <c r="M80" s="11">
-        <v>20105148</v>
+        <v>19586399</v>
       </c>
       <c r="N80" s="11">
-        <v>19586399</v>
-      </c>
-    </row>
-    <row r="81" spans="2:14" x14ac:dyDescent="0.25">
+        <v>22297457</v>
+      </c>
+    </row>
+    <row r="81" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B81" s="12" t="s">
         <v>30</v>
       </c>
@@ -3205,38 +3240,38 @@
         <v>45</v>
       </c>
       <c r="D81" s="13"/>
-      <c r="E81" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="F81" s="13">
+      <c r="E81" s="13">
         <v>9353791</v>
       </c>
-      <c r="G81" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="H81" s="13">
+      <c r="F81" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="G81" s="13">
         <v>9163433</v>
       </c>
-      <c r="I81" s="13" t="s">
-        <v>20</v>
+      <c r="H81" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="I81" s="13">
+        <v>9796599</v>
       </c>
       <c r="J81" s="13">
-        <v>9796599</v>
-      </c>
-      <c r="K81" s="13">
         <v>10339653</v>
       </c>
+      <c r="K81" s="13" t="s">
+        <v>20</v>
+      </c>
       <c r="L81" s="13" t="s">
         <v>20</v>
       </c>
       <c r="M81" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="N81" s="13" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="82" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="N81" s="13">
+        <v>16120988</v>
+      </c>
+    </row>
+    <row r="82" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B82" s="10" t="s">
         <v>23</v>
       </c>
@@ -3245,37 +3280,37 @@
       </c>
       <c r="D82" s="11"/>
       <c r="E82" s="11">
-        <v>2134001</v>
+        <v>3337200</v>
       </c>
       <c r="F82" s="11">
-        <v>3337200</v>
+        <v>4338441</v>
       </c>
       <c r="G82" s="11">
-        <v>4338441</v>
-      </c>
-      <c r="H82" s="11">
         <v>4414770</v>
       </c>
+      <c r="H82" s="11" t="s">
+        <v>20</v>
+      </c>
       <c r="I82" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="J82" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="K82" s="11">
+      <c r="J82" s="11">
         <v>4414770</v>
       </c>
-      <c r="L82" s="11" t="s">
-        <v>20</v>
+      <c r="K82" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="L82" s="11">
+        <v>8294526</v>
       </c>
       <c r="M82" s="11">
-        <v>8294526</v>
+        <v>8370644</v>
       </c>
       <c r="N82" s="11">
-        <v>8370644</v>
-      </c>
-    </row>
-    <row r="83" spans="2:14" x14ac:dyDescent="0.25">
+        <v>9150009</v>
+      </c>
+    </row>
+    <row r="83" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B83" s="12" t="s">
         <v>31</v>
       </c>
@@ -3314,7 +3349,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="84" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B84" s="10" t="s">
         <v>25</v>
       </c>
@@ -3353,7 +3388,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="85" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B85" s="1"/>
       <c r="C85" s="1"/>
       <c r="D85" s="1"/>
@@ -3368,7 +3403,7 @@
       <c r="M85" s="1"/>
       <c r="N85" s="1"/>
     </row>
-    <row r="86" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B86" s="1"/>
       <c r="C86" s="1"/>
       <c r="D86" s="1"/>
@@ -3383,7 +3418,7 @@
       <c r="M86" s="1"/>
       <c r="N86" s="1"/>
     </row>
-    <row r="87" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
       <c r="D87" s="1"/>
@@ -3398,7 +3433,7 @@
       <c r="M87" s="1"/>
       <c r="N87" s="1"/>
     </row>
-    <row r="88" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B88" s="7" t="s">
         <v>47</v>
       </c>
@@ -3435,7 +3470,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="89" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
       <c r="D89" s="1"/>
@@ -3450,7 +3485,7 @@
       <c r="M89" s="1"/>
       <c r="N89" s="1"/>
     </row>
-    <row r="90" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B90" s="8" t="s">
         <v>48</v>
       </c>
@@ -3467,7 +3502,7 @@
       <c r="M90" s="9"/>
       <c r="N90" s="9"/>
     </row>
-    <row r="91" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B91" s="10" t="s">
         <v>16</v>
       </c>
@@ -3476,37 +3511,37 @@
       </c>
       <c r="D91" s="11"/>
       <c r="E91" s="11">
-        <v>-173292</v>
+        <v>-221104</v>
       </c>
       <c r="F91" s="11">
-        <v>-221104</v>
+        <v>-189290</v>
       </c>
       <c r="G91" s="11">
-        <v>-189290</v>
+        <v>-253909</v>
       </c>
       <c r="H91" s="11">
-        <v>-253909</v>
+        <v>-207804</v>
       </c>
       <c r="I91" s="11">
-        <v>-207804</v>
+        <v>-99801</v>
       </c>
       <c r="J91" s="11">
-        <v>-99801</v>
+        <v>-549792</v>
       </c>
       <c r="K91" s="11">
-        <v>-549792</v>
+        <v>-325686</v>
       </c>
       <c r="L91" s="11">
-        <v>-325686</v>
+        <v>-430365</v>
       </c>
       <c r="M91" s="11">
-        <v>-430365</v>
+        <v>-521819</v>
       </c>
       <c r="N91" s="11">
-        <v>-521819</v>
-      </c>
-    </row>
-    <row r="92" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-632870</v>
+      </c>
+    </row>
+    <row r="92" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B92" s="12" t="s">
         <v>18</v>
       </c>
@@ -3515,37 +3550,37 @@
       </c>
       <c r="D92" s="13"/>
       <c r="E92" s="13">
-        <v>-481670</v>
+        <v>-476589</v>
       </c>
       <c r="F92" s="13">
-        <v>-476589</v>
+        <v>-444630</v>
       </c>
       <c r="G92" s="13">
-        <v>-444630</v>
+        <v>-624044</v>
       </c>
       <c r="H92" s="13">
-        <v>-624044</v>
+        <v>-735563</v>
       </c>
       <c r="I92" s="13">
-        <v>-735563</v>
+        <v>-665084</v>
       </c>
       <c r="J92" s="13">
-        <v>-665084</v>
+        <v>-1500928</v>
       </c>
       <c r="K92" s="13">
-        <v>-1500928</v>
+        <v>-1130992</v>
       </c>
       <c r="L92" s="13">
-        <v>-1130992</v>
+        <v>-1186273</v>
       </c>
       <c r="M92" s="13">
-        <v>-1186273</v>
+        <v>-1423495</v>
       </c>
       <c r="N92" s="13">
-        <v>-1423495</v>
-      </c>
-    </row>
-    <row r="93" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-1838256</v>
+      </c>
+    </row>
+    <row r="93" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B93" s="10" t="s">
         <v>19</v>
       </c>
@@ -3584,7 +3619,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="94" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B94" s="12" t="s">
         <v>21</v>
       </c>
@@ -3623,7 +3658,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="95" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B95" s="10" t="s">
         <v>22</v>
       </c>
@@ -3662,7 +3697,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="96" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B96" s="12" t="s">
         <v>23</v>
       </c>
@@ -3694,14 +3729,14 @@
       <c r="L96" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="M96" s="13" t="s">
-        <v>20</v>
+      <c r="M96" s="13">
+        <v>-669</v>
       </c>
       <c r="N96" s="13">
-        <v>-669</v>
-      </c>
-    </row>
-    <row r="97" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-125746</v>
+      </c>
+    </row>
+    <row r="97" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B97" s="10" t="s">
         <v>24</v>
       </c>
@@ -3740,7 +3775,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="98" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B98" s="12" t="s">
         <v>25</v>
       </c>
@@ -3779,7 +3814,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="99" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B99" s="10" t="s">
         <v>26</v>
       </c>
@@ -3818,7 +3853,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="100" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B100" s="12" t="s">
         <v>27</v>
       </c>
@@ -3857,44 +3892,44 @@
         <v>20</v>
       </c>
     </row>
-    <row r="101" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B101" s="14" t="s">
         <v>49</v>
       </c>
       <c r="C101" s="15"/>
       <c r="D101" s="15"/>
       <c r="E101" s="15">
-        <v>-654962</v>
+        <v>-697693</v>
       </c>
       <c r="F101" s="15">
-        <v>-697693</v>
+        <v>-633920</v>
       </c>
       <c r="G101" s="15">
-        <v>-633920</v>
+        <v>-877953</v>
       </c>
       <c r="H101" s="15">
-        <v>-877953</v>
+        <v>-943367</v>
       </c>
       <c r="I101" s="15">
-        <v>-943367</v>
+        <v>-764885</v>
       </c>
       <c r="J101" s="15">
-        <v>-764885</v>
+        <v>-2050720</v>
       </c>
       <c r="K101" s="15">
-        <v>-2050720</v>
+        <v>-1456678</v>
       </c>
       <c r="L101" s="15">
-        <v>-1456678</v>
+        <v>-1616638</v>
       </c>
       <c r="M101" s="15">
-        <v>-1616638</v>
+        <v>-1945983</v>
       </c>
       <c r="N101" s="15">
-        <v>-1945983</v>
-      </c>
-    </row>
-    <row r="102" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-2596872</v>
+      </c>
+    </row>
+    <row r="102" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B102" s="8" t="s">
         <v>50</v>
       </c>
@@ -3911,7 +3946,7 @@
       <c r="M102" s="9"/>
       <c r="N102" s="9"/>
     </row>
-    <row r="103" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B103" s="10" t="s">
         <v>16</v>
       </c>
@@ -3920,37 +3955,37 @@
       </c>
       <c r="D103" s="11"/>
       <c r="E103" s="11">
-        <v>-36119</v>
+        <v>-47520</v>
       </c>
       <c r="F103" s="11">
-        <v>-47520</v>
+        <v>-57642</v>
       </c>
       <c r="G103" s="11">
-        <v>-57642</v>
+        <v>-52577</v>
       </c>
       <c r="H103" s="11">
-        <v>-52577</v>
+        <v>-61173</v>
       </c>
       <c r="I103" s="11">
-        <v>-61173</v>
+        <v>-278487</v>
       </c>
       <c r="J103" s="11">
-        <v>-278487</v>
+        <v>121030</v>
       </c>
       <c r="K103" s="11">
-        <v>121030</v>
+        <v>-101921</v>
       </c>
       <c r="L103" s="11">
-        <v>-101921</v>
+        <v>-106378</v>
       </c>
       <c r="M103" s="11">
-        <v>-106378</v>
+        <v>-118912</v>
       </c>
       <c r="N103" s="11">
-        <v>-118912</v>
-      </c>
-    </row>
-    <row r="104" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-127881</v>
+      </c>
+    </row>
+    <row r="104" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B104" s="12" t="s">
         <v>30</v>
       </c>
@@ -3959,25 +3994,25 @@
       </c>
       <c r="D104" s="13"/>
       <c r="E104" s="13">
-        <v>-3</v>
+        <v>-582</v>
       </c>
       <c r="F104" s="13">
-        <v>-582</v>
+        <v>-45</v>
       </c>
       <c r="G104" s="13">
-        <v>-45</v>
+        <v>-28433</v>
       </c>
       <c r="H104" s="13">
-        <v>-28433</v>
+        <v>-5930</v>
       </c>
       <c r="I104" s="13">
-        <v>-5930</v>
+        <v>11713</v>
       </c>
       <c r="J104" s="13">
-        <v>11713</v>
+        <v>-59282</v>
       </c>
       <c r="K104" s="13">
-        <v>-59282</v>
+        <v>0</v>
       </c>
       <c r="L104" s="13">
         <v>0</v>
@@ -3986,10 +4021,10 @@
         <v>0</v>
       </c>
       <c r="N104" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="105" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-2757</v>
+      </c>
+    </row>
+    <row r="105" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B105" s="10" t="s">
         <v>23</v>
       </c>
@@ -3998,37 +4033,37 @@
       </c>
       <c r="D105" s="11"/>
       <c r="E105" s="11">
-        <v>2324</v>
+        <v>-84598</v>
       </c>
       <c r="F105" s="11">
-        <v>-84598</v>
+        <v>-100476</v>
       </c>
       <c r="G105" s="11">
-        <v>-100476</v>
+        <v>-113094</v>
       </c>
       <c r="H105" s="11">
-        <v>-113094</v>
+        <v>-66271</v>
       </c>
       <c r="I105" s="11">
-        <v>-66271</v>
+        <v>-291981</v>
       </c>
       <c r="J105" s="11">
-        <v>-291981</v>
+        <v>261500</v>
       </c>
       <c r="K105" s="11">
-        <v>261500</v>
+        <v>0</v>
       </c>
       <c r="L105" s="11">
-        <v>0</v>
+        <v>-5288</v>
       </c>
       <c r="M105" s="11">
-        <v>-5288</v>
+        <v>-381148</v>
       </c>
       <c r="N105" s="11">
-        <v>-381148</v>
-      </c>
-    </row>
-    <row r="106" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-403373</v>
+      </c>
+    </row>
+    <row r="106" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B106" s="12" t="s">
         <v>31</v>
       </c>
@@ -4067,7 +4102,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="107" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B107" s="10" t="s">
         <v>25</v>
       </c>
@@ -4106,44 +4141,44 @@
         <v>20</v>
       </c>
     </row>
-    <row r="108" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B108" s="16" t="s">
         <v>51</v>
       </c>
       <c r="C108" s="17"/>
       <c r="D108" s="17"/>
       <c r="E108" s="17">
-        <v>-33798</v>
+        <v>-132700</v>
       </c>
       <c r="F108" s="17">
-        <v>-132700</v>
+        <v>-158163</v>
       </c>
       <c r="G108" s="17">
-        <v>-158163</v>
+        <v>-194104</v>
       </c>
       <c r="H108" s="17">
-        <v>-194104</v>
+        <v>-133374</v>
       </c>
       <c r="I108" s="17">
-        <v>-133374</v>
+        <v>-558755</v>
       </c>
       <c r="J108" s="17">
-        <v>-558755</v>
+        <v>323248</v>
       </c>
       <c r="K108" s="17">
-        <v>323248</v>
+        <v>-101921</v>
       </c>
       <c r="L108" s="17">
-        <v>-101921</v>
+        <v>-111666</v>
       </c>
       <c r="M108" s="17">
-        <v>-111666</v>
+        <v>-500060</v>
       </c>
       <c r="N108" s="17">
-        <v>-500060</v>
-      </c>
-    </row>
-    <row r="109" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-534011</v>
+      </c>
+    </row>
+    <row r="109" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B109" s="18" t="s">
         <v>52</v>
       </c>
@@ -4160,7 +4195,7 @@
       <c r="M109" s="19"/>
       <c r="N109" s="19"/>
     </row>
-    <row r="110" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B110" s="14" t="s">
         <v>53</v>
       </c>
@@ -4197,7 +4232,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B111" s="16" t="s">
         <v>35</v>
       </c>
@@ -4214,8 +4249,8 @@
       <c r="G111" s="17">
         <v>0</v>
       </c>
-      <c r="H111" s="17">
-        <v>0</v>
+      <c r="H111" s="17" t="s">
+        <v>20</v>
       </c>
       <c r="I111" s="17" t="s">
         <v>20</v>
@@ -4236,7 +4271,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="112" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B112" s="14" t="s">
         <v>36</v>
       </c>
@@ -4275,44 +4310,44 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B113" s="16" t="s">
         <v>37</v>
       </c>
       <c r="C113" s="17"/>
       <c r="D113" s="17"/>
       <c r="E113" s="17">
-        <v>-688760</v>
+        <v>-830393</v>
       </c>
       <c r="F113" s="17">
-        <v>-830393</v>
+        <v>-792083</v>
       </c>
       <c r="G113" s="17">
-        <v>-792083</v>
+        <v>-1072057</v>
       </c>
       <c r="H113" s="17">
-        <v>-1072057</v>
+        <v>-1076741</v>
       </c>
       <c r="I113" s="17">
-        <v>-1076741</v>
+        <v>-1323640</v>
       </c>
       <c r="J113" s="17">
-        <v>-1323640</v>
+        <v>-1727472</v>
       </c>
       <c r="K113" s="17">
-        <v>-1727472</v>
+        <v>-1558599</v>
       </c>
       <c r="L113" s="17">
-        <v>-1558599</v>
+        <v>-1728304</v>
       </c>
       <c r="M113" s="17">
-        <v>-1728304</v>
+        <v>-2446043</v>
       </c>
       <c r="N113" s="17">
-        <v>-2446043</v>
-      </c>
-    </row>
-    <row r="114" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-3130883</v>
+      </c>
+    </row>
+    <row r="114" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B114" s="1"/>
       <c r="C114" s="1"/>
       <c r="D114" s="1"/>
@@ -4327,7 +4362,7 @@
       <c r="M114" s="1"/>
       <c r="N114" s="1"/>
     </row>
-    <row r="115" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B115" s="1"/>
       <c r="C115" s="1"/>
       <c r="D115" s="1"/>
@@ -4342,7 +4377,7 @@
       <c r="M115" s="1"/>
       <c r="N115" s="1"/>
     </row>
-    <row r="116" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B116" s="1"/>
       <c r="C116" s="1"/>
       <c r="D116" s="1"/>
@@ -4357,7 +4392,7 @@
       <c r="M116" s="1"/>
       <c r="N116" s="1"/>
     </row>
-    <row r="117" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="117" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B117" s="7" t="s">
         <v>54</v>
       </c>
@@ -4394,7 +4429,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="118" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="118" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B118" s="1"/>
       <c r="C118" s="1"/>
       <c r="D118" s="1"/>
@@ -4409,7 +4444,7 @@
       <c r="M118" s="1"/>
       <c r="N118" s="1"/>
     </row>
-    <row r="119" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="119" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B119" s="8" t="s">
         <v>55</v>
       </c>
@@ -4426,7 +4461,7 @@
       <c r="M119" s="9"/>
       <c r="N119" s="9"/>
     </row>
-    <row r="120" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="120" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B120" s="10" t="s">
         <v>16</v>
       </c>
@@ -4435,37 +4470,37 @@
       </c>
       <c r="D120" s="11"/>
       <c r="E120" s="11">
-        <v>143251</v>
+        <v>121637</v>
       </c>
       <c r="F120" s="11">
-        <v>121637</v>
+        <v>108679</v>
       </c>
       <c r="G120" s="11">
-        <v>108679</v>
+        <v>197436</v>
       </c>
       <c r="H120" s="11">
-        <v>197436</v>
+        <v>182792</v>
       </c>
       <c r="I120" s="11">
-        <v>182792</v>
+        <v>532103</v>
       </c>
       <c r="J120" s="11">
-        <v>532103</v>
+        <v>24955</v>
       </c>
       <c r="K120" s="11">
-        <v>24955</v>
+        <v>348028</v>
       </c>
       <c r="L120" s="11">
-        <v>348028</v>
+        <v>580113</v>
       </c>
       <c r="M120" s="11">
-        <v>580113</v>
+        <v>488913</v>
       </c>
       <c r="N120" s="11">
-        <v>488913</v>
-      </c>
-    </row>
-    <row r="121" spans="2:14" x14ac:dyDescent="0.25">
+        <v>383665</v>
+      </c>
+    </row>
+    <row r="121" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B121" s="12" t="s">
         <v>18</v>
       </c>
@@ -4474,37 +4509,37 @@
       </c>
       <c r="D121" s="13"/>
       <c r="E121" s="13">
-        <v>720792</v>
+        <v>688311</v>
       </c>
       <c r="F121" s="13">
-        <v>688311</v>
+        <v>615384</v>
       </c>
       <c r="G121" s="13">
-        <v>615384</v>
+        <v>684237</v>
       </c>
       <c r="H121" s="13">
-        <v>684237</v>
+        <v>1295897</v>
       </c>
       <c r="I121" s="13">
-        <v>1295897</v>
+        <v>1524139</v>
       </c>
       <c r="J121" s="13">
-        <v>1524139</v>
+        <v>723470</v>
       </c>
       <c r="K121" s="13">
-        <v>723470</v>
+        <v>1307991</v>
       </c>
       <c r="L121" s="13">
-        <v>1307991</v>
+        <v>2164308</v>
       </c>
       <c r="M121" s="13">
-        <v>2164308</v>
+        <v>2066462</v>
       </c>
       <c r="N121" s="13">
-        <v>2066462</v>
-      </c>
-    </row>
-    <row r="122" spans="2:14" x14ac:dyDescent="0.25">
+        <v>1959019</v>
+      </c>
+    </row>
+    <row r="122" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B122" s="10" t="s">
         <v>19</v>
       </c>
@@ -4543,7 +4578,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="123" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="123" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B123" s="12" t="s">
         <v>21</v>
       </c>
@@ -4582,7 +4617,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="124" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="124" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B124" s="10" t="s">
         <v>22</v>
       </c>
@@ -4621,7 +4656,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="125" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="125" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B125" s="12" t="s">
         <v>23</v>
       </c>
@@ -4653,14 +4688,14 @@
       <c r="L125" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="M125" s="13" t="s">
-        <v>20</v>
+      <c r="M125" s="13">
+        <v>340</v>
       </c>
       <c r="N125" s="13">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="126" spans="2:14" x14ac:dyDescent="0.25">
+        <v>45887</v>
+      </c>
+    </row>
+    <row r="126" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B126" s="10" t="s">
         <v>24</v>
       </c>
@@ -4699,7 +4734,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="127" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="127" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B127" s="12" t="s">
         <v>25</v>
       </c>
@@ -4738,7 +4773,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="128" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="128" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B128" s="10" t="s">
         <v>26</v>
       </c>
@@ -4777,7 +4812,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="129" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="129" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B129" s="12" t="s">
         <v>27</v>
       </c>
@@ -4816,44 +4851,44 @@
         <v>20</v>
       </c>
     </row>
-    <row r="130" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="130" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B130" s="14" t="s">
         <v>56</v>
       </c>
       <c r="C130" s="15"/>
       <c r="D130" s="15"/>
       <c r="E130" s="15">
-        <v>864043</v>
+        <v>809948</v>
       </c>
       <c r="F130" s="15">
-        <v>809948</v>
+        <v>724063</v>
       </c>
       <c r="G130" s="15">
-        <v>724063</v>
+        <v>881673</v>
       </c>
       <c r="H130" s="15">
-        <v>881673</v>
+        <v>1478689</v>
       </c>
       <c r="I130" s="15">
-        <v>1478689</v>
+        <v>2056242</v>
       </c>
       <c r="J130" s="15">
-        <v>2056242</v>
+        <v>748425</v>
       </c>
       <c r="K130" s="15">
-        <v>748425</v>
+        <v>1656019</v>
       </c>
       <c r="L130" s="15">
-        <v>1656019</v>
+        <v>2744421</v>
       </c>
       <c r="M130" s="15">
-        <v>2744421</v>
+        <v>2555715</v>
       </c>
       <c r="N130" s="15">
-        <v>2555715</v>
-      </c>
-    </row>
-    <row r="131" spans="2:14" x14ac:dyDescent="0.25">
+        <v>2388571</v>
+      </c>
+    </row>
+    <row r="131" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B131" s="8" t="s">
         <v>57</v>
       </c>
@@ -4870,7 +4905,7 @@
       <c r="M131" s="9"/>
       <c r="N131" s="9"/>
     </row>
-    <row r="132" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="132" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B132" s="10" t="s">
         <v>16</v>
       </c>
@@ -4879,37 +4914,37 @@
       </c>
       <c r="D132" s="11"/>
       <c r="E132" s="11">
-        <v>94053</v>
+        <v>134788</v>
       </c>
       <c r="F132" s="11">
-        <v>134788</v>
+        <v>139984</v>
       </c>
       <c r="G132" s="11">
-        <v>139984</v>
+        <v>102031</v>
       </c>
       <c r="H132" s="11">
-        <v>102031</v>
+        <v>92261</v>
       </c>
       <c r="I132" s="11">
-        <v>92261</v>
+        <v>-23192</v>
       </c>
       <c r="J132" s="11">
-        <v>-23192</v>
+        <v>284273</v>
       </c>
       <c r="K132" s="11">
-        <v>284273</v>
+        <v>200995</v>
       </c>
       <c r="L132" s="11">
-        <v>200995</v>
+        <v>234163</v>
       </c>
       <c r="M132" s="11">
-        <v>234163</v>
+        <v>179761</v>
       </c>
       <c r="N132" s="11">
-        <v>179761</v>
-      </c>
-    </row>
-    <row r="133" spans="2:14" x14ac:dyDescent="0.25">
+        <v>169411</v>
+      </c>
+    </row>
+    <row r="133" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B133" s="12" t="s">
         <v>30</v>
       </c>
@@ -4918,25 +4953,25 @@
       </c>
       <c r="D133" s="13"/>
       <c r="E133" s="13">
-        <v>-3</v>
+        <v>2009</v>
       </c>
       <c r="F133" s="13">
-        <v>2009</v>
+        <v>-45</v>
       </c>
       <c r="G133" s="13">
-        <v>-45</v>
+        <v>17375</v>
       </c>
       <c r="H133" s="13">
-        <v>17375</v>
+        <v>-5930</v>
       </c>
       <c r="I133" s="13">
-        <v>-5930</v>
+        <v>25821</v>
       </c>
       <c r="J133" s="13">
-        <v>25821</v>
+        <v>-8256</v>
       </c>
       <c r="K133" s="13">
-        <v>-8256</v>
+        <v>0</v>
       </c>
       <c r="L133" s="13">
         <v>0</v>
@@ -4945,10 +4980,10 @@
         <v>0</v>
       </c>
       <c r="N133" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="134" spans="2:14" x14ac:dyDescent="0.25">
+        <v>3772</v>
+      </c>
+    </row>
+    <row r="134" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B134" s="10" t="s">
         <v>23</v>
       </c>
@@ -4957,37 +4992,37 @@
       </c>
       <c r="D134" s="11"/>
       <c r="E134" s="11">
-        <v>-6525</v>
+        <v>304079</v>
       </c>
       <c r="F134" s="11">
-        <v>304079</v>
+        <v>441685</v>
       </c>
       <c r="G134" s="11">
-        <v>441685</v>
+        <v>598589</v>
       </c>
       <c r="H134" s="11">
-        <v>598589</v>
+        <v>-66271</v>
       </c>
       <c r="I134" s="11">
-        <v>-66271</v>
+        <v>-291981</v>
       </c>
       <c r="J134" s="11">
-        <v>-291981</v>
+        <v>261500</v>
       </c>
       <c r="K134" s="11">
-        <v>261500</v>
+        <v>0</v>
       </c>
       <c r="L134" s="11">
-        <v>0</v>
+        <v>15017</v>
       </c>
       <c r="M134" s="11">
-        <v>15017</v>
+        <v>1147407</v>
       </c>
       <c r="N134" s="11">
-        <v>1147407</v>
-      </c>
-    </row>
-    <row r="135" spans="2:14" x14ac:dyDescent="0.25">
+        <v>998262</v>
+      </c>
+    </row>
+    <row r="135" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B135" s="12" t="s">
         <v>31</v>
       </c>
@@ -5026,7 +5061,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="136" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="136" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B136" s="10" t="s">
         <v>25</v>
       </c>
@@ -5065,44 +5100,44 @@
         <v>20</v>
       </c>
     </row>
-    <row r="137" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="137" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B137" s="16" t="s">
         <v>58</v>
       </c>
       <c r="C137" s="17"/>
       <c r="D137" s="17"/>
       <c r="E137" s="17">
-        <v>87525</v>
+        <v>440876</v>
       </c>
       <c r="F137" s="17">
-        <v>440876</v>
+        <v>581624</v>
       </c>
       <c r="G137" s="17">
-        <v>581624</v>
+        <v>717995</v>
       </c>
       <c r="H137" s="17">
-        <v>717995</v>
+        <v>20060</v>
       </c>
       <c r="I137" s="17">
-        <v>20060</v>
+        <v>-289352</v>
       </c>
       <c r="J137" s="17">
-        <v>-289352</v>
+        <v>537517</v>
       </c>
       <c r="K137" s="17">
-        <v>537517</v>
+        <v>200995</v>
       </c>
       <c r="L137" s="17">
-        <v>200995</v>
+        <v>249180</v>
       </c>
       <c r="M137" s="17">
-        <v>249180</v>
+        <v>1327168</v>
       </c>
       <c r="N137" s="17">
-        <v>1327168</v>
-      </c>
-    </row>
-    <row r="138" spans="2:14" x14ac:dyDescent="0.25">
+        <v>1171445</v>
+      </c>
+    </row>
+    <row r="138" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B138" s="18" t="s">
         <v>59</v>
       </c>
@@ -5119,7 +5154,7 @@
       <c r="M138" s="19"/>
       <c r="N138" s="19"/>
     </row>
-    <row r="139" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="139" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B139" s="14" t="s">
         <v>60</v>
       </c>
@@ -5156,41 +5191,41 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="140" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B140" s="16" t="s">
         <v>37</v>
       </c>
       <c r="C140" s="17"/>
       <c r="D140" s="17"/>
       <c r="E140" s="17">
-        <v>951568</v>
+        <v>1250824</v>
       </c>
       <c r="F140" s="17">
-        <v>1250824</v>
+        <v>1305687</v>
       </c>
       <c r="G140" s="17">
-        <v>1305687</v>
+        <v>1599668</v>
       </c>
       <c r="H140" s="17">
-        <v>1599668</v>
+        <v>1498749</v>
       </c>
       <c r="I140" s="17">
-        <v>1498749</v>
+        <v>1766890</v>
       </c>
       <c r="J140" s="17">
-        <v>1766890</v>
+        <v>1285942</v>
       </c>
       <c r="K140" s="17">
-        <v>1285942</v>
+        <v>1857014</v>
       </c>
       <c r="L140" s="17">
-        <v>1857014</v>
+        <v>2993601</v>
       </c>
       <c r="M140" s="17">
-        <v>2993601</v>
+        <v>3882883</v>
       </c>
       <c r="N140" s="17">
-        <v>3882883</v>
+        <v>3560016</v>
       </c>
     </row>
   </sheetData>
